--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3189356.018177291</v>
+        <v>3203224.733056148</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1441081.322280554</v>
+        <v>1412624.278846406</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3886015.21938938</v>
+        <v>3945456.677058465</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6822590.434061772</v>
+        <v>6812745.256382463</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>27.59002526031614</v>
+        <v>10.67593593574506</v>
       </c>
       <c r="G2" t="n">
-        <v>27.59002526031614</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -704,7 +704,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.361305680129117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,22 +744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.55470292302859</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="H3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>32.61592450490238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>37.02988704007993</v>
       </c>
     </row>
     <row r="4">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>22.4487593605094</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>12.63319108191101</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>26.59788277992272</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>23.55470292302859</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,16 +1093,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>25.04785205983618</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1142,64 +1142,64 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>19.56274131285412</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G8" t="n">
+      <c r="W8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>12.92549025883184</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>34.86547882798917</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>39.58387696184059</v>
@@ -1275,10 +1275,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,31 +1330,31 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>9.977552361264268</v>
+      </c>
+      <c r="U10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="R10" t="n">
-        <v>24.5704967621155</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>22.00159820879924</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>10.03988858945487</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>199.8847387377845</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>221.3734489850626</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1458,7 +1458,7 @@
         <v>29.7775607230505</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>17.20169266103343</v>
       </c>
       <c r="G12" t="n">
         <v>9.47599743086019</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>43.81565137148738</v>
+        <v>93.06904905053358</v>
       </c>
       <c r="T12" t="n">
         <v>72.29720896247116</v>
       </c>
       <c r="U12" t="n">
-        <v>98.07386234862437</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>104.9330674170748</v>
@@ -1515,7 +1515,7 @@
         <v>77.90546547112703</v>
       </c>
       <c r="Y12" t="n">
-        <v>127.0685737240003</v>
+        <v>77.81517604495392</v>
       </c>
     </row>
     <row r="13">
@@ -1528,22 +1528,22 @@
         <v>51.96446044958685</v>
       </c>
       <c r="C13" t="n">
-        <v>39.37930136627739</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>20.74795328586191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.56644291421873</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>17.5535282905808</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>40.12345962610831</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.35965277508913</v>
+        <v>29.61730753508204</v>
       </c>
       <c r="I13" t="n">
         <v>27.58295519490784</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>49.42587164481904</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>96.14907830462181</v>
@@ -1585,10 +1585,10 @@
         <v>158.4515096241404</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>124.2701235914776</v>
       </c>
       <c r="W13" t="n">
-        <v>92.38669982784464</v>
+        <v>158.6554786042406</v>
       </c>
       <c r="X13" t="n">
         <v>97.84213565668671</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>202.1924688326348</v>
       </c>
       <c r="E14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>24.30932830364969</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>10.0929168108072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>187.9760573397924</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.75698251952483</v>
+        <v>26.75698251952485</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>32.93229785797325</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>7.668864434296268</v>
       </c>
       <c r="E15" t="n">
-        <v>17.86887932505843</v>
+        <v>17.86887932505846</v>
       </c>
       <c r="F15" t="n">
-        <v>55.24170062051824</v>
+        <v>55.2417006205177</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>31.90696997349531</v>
+        <v>31.90696997349534</v>
       </c>
       <c r="T15" t="n">
-        <v>60.38852756447909</v>
+        <v>60.38852756447912</v>
       </c>
       <c r="U15" t="n">
-        <v>86.1651809506323</v>
+        <v>86.16518095063233</v>
       </c>
       <c r="V15" t="n">
-        <v>93.02438601908275</v>
+        <v>93.02438601908278</v>
       </c>
       <c r="W15" t="n">
         <v>111.9187820305771</v>
       </c>
       <c r="X15" t="n">
-        <v>65.99678407313496</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>65.90649464696185</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.05577905159478</v>
+        <v>40.05577905159481</v>
       </c>
       <c r="C16" t="n">
-        <v>27.47061996828532</v>
+        <v>27.47061996828535</v>
       </c>
       <c r="D16" t="n">
-        <v>8.839271887869842</v>
+        <v>8.83927188786987</v>
       </c>
       <c r="E16" t="n">
-        <v>6.657761516226657</v>
+        <v>6.657761516226685</v>
       </c>
       <c r="F16" t="n">
-        <v>5.644846892588731</v>
+        <v>5.64484689258876</v>
       </c>
       <c r="G16" t="n">
-        <v>28.21477822811624</v>
+        <v>28.21477822811627</v>
       </c>
       <c r="H16" t="n">
-        <v>22.45097137709706</v>
+        <v>22.45097137709709</v>
       </c>
       <c r="I16" t="n">
-        <v>15.67427379691577</v>
+        <v>15.6742737969158</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>37.51719024682688</v>
       </c>
       <c r="S16" t="n">
-        <v>84.24039690662974</v>
+        <v>84.24039690662977</v>
       </c>
       <c r="T16" t="n">
-        <v>88.16938829793898</v>
+        <v>88.16938829793901</v>
       </c>
       <c r="U16" t="n">
         <v>146.5428282261484</v>
@@ -1828,10 +1828,10 @@
         <v>146.7467972062485</v>
       </c>
       <c r="X16" t="n">
-        <v>85.93345425869464</v>
+        <v>85.93345425869467</v>
       </c>
       <c r="Y16" t="n">
-        <v>78.80845222175228</v>
+        <v>78.8084522217523</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>232.0612521311121</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
@@ -1859,10 +1859,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>189.6056841746175</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>60.60677162925623</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>28.38395212755889</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>73.22673162298167</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>101.4765349666868</v>
+        <v>43.35528186100375</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>177.8831405289852</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>112.95840223094</v>
+        <v>165.4679527039598</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>76.07226413982514</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>82.93146920827559</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>232.8647237223309</v>
       </c>
       <c r="C20" t="n">
-        <v>215.4037738298579</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>189.6056841746175</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>48.29021651662573</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>220.4349507987702</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>16.66406570871766</v>
       </c>
       <c r="C21" t="n">
         <v>22.83938104716606</v>
@@ -2169,7 +2169,7 @@
         <v>7.775962514251262</v>
       </c>
       <c r="F21" t="n">
-        <v>143.6538995412717</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2211,13 +2211,13 @@
         <v>21.81405316268814</v>
       </c>
       <c r="T21" t="n">
-        <v>50.29561075367192</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>76.07226413982514</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>226.5853687495474</v>
       </c>
       <c r="W21" t="n">
         <v>101.8258652197699</v>
@@ -2318,25 +2318,25 @@
         <v>232.8647237223309</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>215.4037738298579</v>
       </c>
       <c r="D23" t="n">
         <v>204.8139236795333</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>232.0612521311121</v>
       </c>
       <c r="F23" t="n">
         <v>257.0069278005618</v>
       </c>
       <c r="G23" t="n">
-        <v>265.4336195739854</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>60.60677162925623</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>59.15095164509566</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>73.22673162298167</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>116.2859400024584</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>127.2389885128073</v>
       </c>
       <c r="Y23" t="n">
         <v>236.3688207149039</v>
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>16.66406570871766</v>
       </c>
       <c r="C24" t="n">
-        <v>99.43907892587166</v>
+        <v>22.83938104716606</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>7.775962514251262</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -2451,16 +2451,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>76.07226413982514</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>101.8258652197699</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>55.90386726232779</v>
+        <v>170.5114531536889</v>
       </c>
       <c r="Y24" t="n">
         <v>55.81357783615468</v>
@@ -2555,25 +2555,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>242.3507561365282</v>
       </c>
       <c r="D26" t="n">
-        <v>228.5618763453652</v>
+        <v>231.7609059862036</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>259.0082344377824</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>137.1599445043314</v>
       </c>
       <c r="G26" t="n">
-        <v>252.6416606842219</v>
+        <v>292.3806018806557</v>
       </c>
       <c r="H26" t="n">
-        <v>213.3536368404494</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>84.35472429508819</v>
+        <v>87.55375393592657</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>26.94698230667034</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>100.173713929652</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>128.4235172733572</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>223.1198034420953</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>243.6099354031513</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.1167733807359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>43.61104801538799</v>
       </c>
       <c r="C27" t="n">
-        <v>46.58733371299802</v>
+        <v>49.78636335383639</v>
       </c>
       <c r="D27" t="n">
-        <v>21.32390028932103</v>
+        <v>24.52292993015941</v>
       </c>
       <c r="E27" t="n">
-        <v>31.52391518008322</v>
+        <v>34.7229448209216</v>
       </c>
       <c r="F27" t="n">
-        <v>18.94804711806616</v>
+        <v>22.14707675890453</v>
       </c>
       <c r="G27" t="n">
-        <v>11.22235188789291</v>
+        <v>83.07178561009513</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>45.5620058285201</v>
+        <v>48.76103546935848</v>
       </c>
       <c r="T27" t="n">
-        <v>74.04356341950388</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>99.8202168056571</v>
+        <v>103.0192464464955</v>
       </c>
       <c r="V27" t="n">
-        <v>106.6794218741075</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>124.3468804463116</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>41.12565582331011</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>20.31279737125145</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>19.29988274761352</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>41.86981408314104</v>
+        <v>5.229152669077207</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>39.30503687296023</v>
       </c>
       <c r="I28" t="n">
-        <v>29.32930965194056</v>
+        <v>32.52833929277894</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>51.17222610185176</v>
+        <v>54.37125574269014</v>
       </c>
       <c r="S28" t="n">
-        <v>97.89543276165453</v>
+        <v>101.0944624024929</v>
       </c>
       <c r="T28" t="n">
-        <v>101.8244241529638</v>
+        <v>105.0234537938021</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1978640811732</v>
+        <v>163.3968937220116</v>
       </c>
       <c r="V28" t="n">
-        <v>126.0164780485103</v>
+        <v>129.2155076893487</v>
       </c>
       <c r="W28" t="n">
-        <v>40.5395732358103</v>
+        <v>163.6008627021117</v>
       </c>
       <c r="X28" t="n">
-        <v>99.58849011371943</v>
+        <v>102.7875197545578</v>
       </c>
       <c r="Y28" t="n">
-        <v>92.46348807677707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,19 +2792,19 @@
         <v>246.8741865007807</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>229.4132366083077</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>246.0707149095619</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>271.0163905790116</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>30.15661305946729</v>
+        <v>279.4430823524352</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>14.00946277844983</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>73.16041442354549</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>87.2361944014315</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>115.4859977451366</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>191.8926033074351</v>
       </c>
       <c r="W29" t="n">
         <v>213.3813135547132</v>
       </c>
       <c r="X29" t="n">
-        <v>233.8714455157692</v>
+        <v>54.86191871887237</v>
       </c>
       <c r="Y29" t="n">
-        <v>250.3782834933537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>30.67352848716749</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>36.84884382561589</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>21.78542529270109</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>9.209557230684027</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>1.483862000510783</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>72.11442108556625</v>
       </c>
       <c r="T30" t="n">
-        <v>170.6832119140381</v>
+        <v>64.30507353212175</v>
       </c>
       <c r="U30" t="n">
         <v>90.08172691827497</v>
@@ -2931,13 +2931,13 @@
         <v>96.94093198672542</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>115.8353279982198</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>69.91333004077762</v>
       </c>
       <c r="Y30" t="n">
-        <v>69.82304061460451</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>164.3714408193345</v>
+        <v>58.78528287512497</v>
       </c>
       <c r="C32" t="n">
-        <v>51.82591914375711</v>
+        <v>150.1095205676998</v>
       </c>
       <c r="D32" t="n">
-        <v>136.3206407765369</v>
+        <v>139.5196704173752</v>
       </c>
       <c r="E32" t="n">
-        <v>163.5679692281157</v>
+        <v>166.766998868954</v>
       </c>
       <c r="F32" t="n">
-        <v>188.5136448975653</v>
+        <v>191.7126745384037</v>
       </c>
       <c r="G32" t="n">
-        <v>196.940336670989</v>
+        <v>200.1393663118273</v>
       </c>
       <c r="H32" t="n">
-        <v>121.1124012716211</v>
+        <v>124.3114309124594</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>32.9832520636904</v>
+        <v>36.18228170452875</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>112.5888872668272</v>
       </c>
       <c r="W32" t="n">
-        <v>130.8785678732669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>151.3686998343229</v>
+        <v>154.5677294751613</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.8755378119075</v>
+        <v>171.0745674527458</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>40.82581106043423</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3162,10 +3162,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>7.578981236828724</v>
+        <v>10.77801087766707</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>193.290817770569</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>5.65419719282616</v>
+        <v>8.853226833664507</v>
       </c>
       <c r="T34" t="n">
-        <v>9.583188584135399</v>
+        <v>12.78221822497375</v>
       </c>
       <c r="U34" t="n">
-        <v>67.95662851234479</v>
+        <v>71.15565815318314</v>
       </c>
       <c r="V34" t="n">
-        <v>33.77524247968191</v>
+        <v>36.97427212052025</v>
       </c>
       <c r="W34" t="n">
-        <v>68.16059749244491</v>
+        <v>71.35962713328325</v>
       </c>
       <c r="X34" t="n">
-        <v>7.347254544891058</v>
+        <v>10.54628418572941</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.2222525079486957</v>
+        <v>3.421282148787043</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>134.3153323348612</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>118.3201841306696</v>
       </c>
       <c r="E35" t="n">
-        <v>163.5679692281157</v>
+        <v>166.766998868954</v>
       </c>
       <c r="F35" t="n">
-        <v>188.5136448975653</v>
+        <v>191.7126745384037</v>
       </c>
       <c r="G35" t="n">
-        <v>196.940336670989</v>
+        <v>200.1393663118273</v>
       </c>
       <c r="H35" t="n">
-        <v>121.1124012716211</v>
+        <v>124.3114309124594</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>130.8785678732669</v>
+        <v>134.0775975141053</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3348,25 +3348,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>7.578981236828724</v>
+        <v>160.903091906428</v>
       </c>
       <c r="V36" t="n">
-        <v>14.43818630527917</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>165.0368916211135</v>
+        <v>36.53161195761186</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>5.65419719282616</v>
+        <v>8.853226833664507</v>
       </c>
       <c r="T37" t="n">
-        <v>9.583188584135399</v>
+        <v>12.78221822497375</v>
       </c>
       <c r="U37" t="n">
-        <v>67.95662851234479</v>
+        <v>71.15565815318314</v>
       </c>
       <c r="V37" t="n">
-        <v>33.77524247968191</v>
+        <v>36.97427212052025</v>
       </c>
       <c r="W37" t="n">
-        <v>68.16059749244491</v>
+        <v>71.35962713328325</v>
       </c>
       <c r="X37" t="n">
-        <v>7.347254544891058</v>
+        <v>10.54628418572941</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.2222525079486957</v>
+        <v>3.421282148787043</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>164.3714408193345</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>136.3206407765369</v>
+        <v>139.5196704173752</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>166.766998868954</v>
       </c>
       <c r="F38" t="n">
-        <v>188.5136448975653</v>
+        <v>191.6250870294675</v>
       </c>
       <c r="G38" t="n">
-        <v>109.6517193141325</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>4.733448719985262</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>32.9832520636904</v>
+        <v>36.18228170452875</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>112.5888872668272</v>
       </c>
       <c r="W38" t="n">
-        <v>130.8785678732669</v>
+        <v>134.0775975141053</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>154.5677294751613</v>
       </c>
       <c r="Y38" t="n">
-        <v>167.8755378119075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>7.578981236828724</v>
+        <v>33.15379731795682</v>
       </c>
       <c r="V39" t="n">
-        <v>14.43818630527917</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>33.33258231677351</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>183.95233851361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>5.65419719282616</v>
+        <v>8.853226833664507</v>
       </c>
       <c r="T40" t="n">
-        <v>9.583188584135399</v>
+        <v>12.78221822497375</v>
       </c>
       <c r="U40" t="n">
-        <v>67.95662851234479</v>
+        <v>71.15565815318314</v>
       </c>
       <c r="V40" t="n">
-        <v>33.77524247968191</v>
+        <v>36.97427212052025</v>
       </c>
       <c r="W40" t="n">
-        <v>68.16059749244491</v>
+        <v>71.35962713328325</v>
       </c>
       <c r="X40" t="n">
-        <v>7.347254544891058</v>
+        <v>10.54628418572941</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.2222525079486957</v>
+        <v>3.421282148787043</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>240.4402078430553</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>225.2319683381395</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>96.23305579277829</v>
@@ -3785,10 +3785,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>21.27509404204605</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>94.77723580861772</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>132.408731424787</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>53.00398732100021</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>34.37263924058473</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>32.19112886894155</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>31.17821424530362</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>53.74814558083114</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>47.98433872981195</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>41.20764114963066</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>54.70777942258367</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>11.84687004741452</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0761955788633</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>137.8948095462004</v>
@@ -3961,7 +3961,7 @@
         <v>172.2801645589634</v>
       </c>
       <c r="X43" t="n">
-        <v>111.4668216114095</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>104.3418195744672</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>241.0142888776591</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>117.8802270781525</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>94.40515856528963</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>73.93752115761393</v>
+        <v>56.6029477643358</v>
       </c>
       <c r="C45" t="n">
-        <v>80.11283649606233</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>54.84940307238534</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>65.04941796314753</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>52.47354990113047</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>44.74785467095722</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>19.63978174424305</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.562171660389723</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U45" t="n">
-        <v>133.3457195887214</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V45" t="n">
-        <v>18.24631935682697</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W45" t="n">
-        <v>159.0993206686662</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X45" t="n">
-        <v>113.1773227112241</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y45" t="n">
-        <v>113.0870332850509</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="46">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.72376438098188</v>
+        <v>81.32738494668854</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>53.83830015431576</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G46" t="n">
-        <v>75.39531686620535</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>69.63151001518617</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I46" t="n">
-        <v>62.85481243500487</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>135.3499269360281</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U46" t="n">
-        <v>193.7233668642375</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70.01461603622408</v>
+        <v>100.6240064889816</v>
       </c>
       <c r="C2" t="n">
-        <v>70.01461603622408</v>
+        <v>100.6240064889816</v>
       </c>
       <c r="D2" t="n">
-        <v>70.01461603622408</v>
+        <v>100.6240064889816</v>
       </c>
       <c r="E2" t="n">
-        <v>70.01461603622408</v>
+        <v>100.6240064889816</v>
       </c>
       <c r="F2" t="n">
-        <v>42.14590365206637</v>
+        <v>89.84023281651183</v>
       </c>
       <c r="G2" t="n">
-        <v>14.27719126790864</v>
+        <v>52.43630651340079</v>
       </c>
       <c r="H2" t="n">
-        <v>14.27719126790864</v>
+        <v>52.43630651340079</v>
       </c>
       <c r="I2" t="n">
-        <v>14.27719126790864</v>
+        <v>15.03238021028975</v>
       </c>
       <c r="J2" t="n">
-        <v>2.207202020825291</v>
+        <v>2.962390963206394</v>
       </c>
       <c r="K2" t="n">
-        <v>29.52132702853827</v>
+        <v>2.962390963206394</v>
       </c>
       <c r="L2" t="n">
-        <v>56.83545203625125</v>
+        <v>2.962390963206394</v>
       </c>
       <c r="M2" t="n">
-        <v>84.14957704396423</v>
+        <v>39.62197913288552</v>
       </c>
       <c r="N2" t="n">
-        <v>84.14957704396423</v>
+        <v>76.28156730256464</v>
       </c>
       <c r="O2" t="n">
-        <v>84.14957704396423</v>
+        <v>111.4599599906406</v>
       </c>
       <c r="P2" t="n">
-        <v>110.3601010412646</v>
+        <v>148.1195481603197</v>
       </c>
       <c r="Q2" t="n">
-        <v>100.2684856730375</v>
+        <v>138.0279327920926</v>
       </c>
       <c r="R2" t="n">
-        <v>100.2684856730375</v>
+        <v>100.6240064889816</v>
       </c>
       <c r="S2" t="n">
-        <v>100.2684856730375</v>
+        <v>100.6240064889816</v>
       </c>
       <c r="T2" t="n">
-        <v>100.2684856730375</v>
+        <v>100.6240064889816</v>
       </c>
       <c r="U2" t="n">
-        <v>97.8833284203818</v>
+        <v>100.6240064889816</v>
       </c>
       <c r="V2" t="n">
-        <v>70.01461603622408</v>
+        <v>100.6240064889816</v>
       </c>
       <c r="W2" t="n">
-        <v>70.01461603622408</v>
+        <v>100.6240064889816</v>
       </c>
       <c r="X2" t="n">
-        <v>70.01461603622408</v>
+        <v>100.6240064889816</v>
       </c>
       <c r="Y2" t="n">
-        <v>70.01461603622408</v>
+        <v>100.6240064889816</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.3601010412646</v>
+        <v>40.36631726631744</v>
       </c>
       <c r="C3" t="n">
-        <v>110.3601010412646</v>
+        <v>40.36631726631744</v>
       </c>
       <c r="D3" t="n">
-        <v>110.3601010412646</v>
+        <v>40.36631726631744</v>
       </c>
       <c r="E3" t="n">
-        <v>86.56747182608416</v>
+        <v>40.36631726631744</v>
       </c>
       <c r="F3" t="n">
-        <v>58.69875944192644</v>
+        <v>40.36631726631744</v>
       </c>
       <c r="G3" t="n">
-        <v>58.69875944192644</v>
+        <v>2.962390963206394</v>
       </c>
       <c r="H3" t="n">
-        <v>30.83004705776872</v>
+        <v>2.962390963206394</v>
       </c>
       <c r="I3" t="n">
-        <v>2.961334673611005</v>
+        <v>2.962390963206394</v>
       </c>
       <c r="J3" t="n">
-        <v>2.207202020825291</v>
+        <v>2.962390963206394</v>
       </c>
       <c r="K3" t="n">
-        <v>29.52132702853827</v>
+        <v>39.62197913288552</v>
       </c>
       <c r="L3" t="n">
-        <v>56.83545203625125</v>
+        <v>76.28156730256464</v>
       </c>
       <c r="M3" t="n">
-        <v>84.14957704396423</v>
+        <v>112.9411554722438</v>
       </c>
       <c r="N3" t="n">
-        <v>110.3601010412646</v>
+        <v>148.1195481603197</v>
       </c>
       <c r="O3" t="n">
-        <v>110.3601010412646</v>
+        <v>148.1195481603197</v>
       </c>
       <c r="P3" t="n">
-        <v>110.3601010412646</v>
+        <v>148.1195481603197</v>
       </c>
       <c r="Q3" t="n">
-        <v>110.3601010412646</v>
+        <v>148.1195481603197</v>
       </c>
       <c r="R3" t="n">
-        <v>110.3601010412646</v>
+        <v>115.1741698725395</v>
       </c>
       <c r="S3" t="n">
-        <v>110.3601010412646</v>
+        <v>115.1741698725395</v>
       </c>
       <c r="T3" t="n">
-        <v>110.3601010412646</v>
+        <v>115.1741698725395</v>
       </c>
       <c r="U3" t="n">
-        <v>110.3601010412646</v>
+        <v>115.1741698725395</v>
       </c>
       <c r="V3" t="n">
-        <v>110.3601010412646</v>
+        <v>115.1741698725395</v>
       </c>
       <c r="W3" t="n">
-        <v>110.3601010412646</v>
+        <v>77.77024356942849</v>
       </c>
       <c r="X3" t="n">
-        <v>110.3601010412646</v>
+        <v>77.77024356942849</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.3601010412646</v>
+        <v>40.36631726631744</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.49138865710684</v>
+        <v>2.962390963206394</v>
       </c>
       <c r="C4" t="n">
-        <v>54.62267627294912</v>
+        <v>2.962390963206394</v>
       </c>
       <c r="D4" t="n">
-        <v>54.62267627294912</v>
+        <v>2.962390963206394</v>
       </c>
       <c r="E4" t="n">
-        <v>26.7539638887914</v>
+        <v>2.962390963206394</v>
       </c>
       <c r="F4" t="n">
-        <v>26.7539638887914</v>
+        <v>2.962390963206394</v>
       </c>
       <c r="G4" t="n">
-        <v>26.7539638887914</v>
+        <v>2.962390963206394</v>
       </c>
       <c r="H4" t="n">
-        <v>26.7539638887914</v>
+        <v>2.962390963206394</v>
       </c>
       <c r="I4" t="n">
-        <v>4.078449383226349</v>
+        <v>2.962390963206394</v>
       </c>
       <c r="J4" t="n">
-        <v>4.078449383226349</v>
+        <v>2.962390963206394</v>
       </c>
       <c r="K4" t="n">
-        <v>4.078449383226349</v>
+        <v>2.962390963206394</v>
       </c>
       <c r="L4" t="n">
-        <v>31.39257439093933</v>
+        <v>30.27651597091937</v>
       </c>
       <c r="M4" t="n">
-        <v>58.7066993986523</v>
+        <v>66.9361041405985</v>
       </c>
       <c r="N4" t="n">
-        <v>86.02082440636528</v>
+        <v>103.5956923102776</v>
       </c>
       <c r="O4" t="n">
-        <v>110.3601010412646</v>
+        <v>127.9349689451769</v>
       </c>
       <c r="P4" t="n">
-        <v>110.3601010412646</v>
+        <v>127.9349689451769</v>
       </c>
       <c r="Q4" t="n">
-        <v>110.3601010412646</v>
+        <v>127.9349689451769</v>
       </c>
       <c r="R4" t="n">
-        <v>110.3601010412646</v>
+        <v>115.1741698725395</v>
       </c>
       <c r="S4" t="n">
-        <v>110.3601010412646</v>
+        <v>77.77024356942849</v>
       </c>
       <c r="T4" t="n">
-        <v>110.3601010412646</v>
+        <v>77.77024356942849</v>
       </c>
       <c r="U4" t="n">
-        <v>110.3601010412646</v>
+        <v>40.36631726631744</v>
       </c>
       <c r="V4" t="n">
-        <v>110.3601010412646</v>
+        <v>40.36631726631744</v>
       </c>
       <c r="W4" t="n">
-        <v>110.3601010412646</v>
+        <v>2.962390963206394</v>
       </c>
       <c r="X4" t="n">
-        <v>110.3601010412646</v>
+        <v>2.962390963206394</v>
       </c>
       <c r="Y4" t="n">
-        <v>82.49138865710684</v>
+        <v>2.962390963206394</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.53322502633155</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="C5" t="n">
-        <v>45.53322502633155</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="D5" t="n">
-        <v>45.53322502633155</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="E5" t="n">
-        <v>45.53322502633155</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="F5" t="n">
-        <v>17.66451264217383</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="G5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L5" t="n">
-        <v>55.73185102583861</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M5" t="n">
-        <v>55.73185102583861</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N5" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O5" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>100.2684856730375</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R5" t="n">
-        <v>100.2684856730375</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S5" t="n">
-        <v>73.40193741048927</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T5" t="n">
-        <v>73.40193741048927</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U5" t="n">
-        <v>73.40193741048927</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="V5" t="n">
-        <v>73.40193741048927</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="W5" t="n">
-        <v>73.40193741048927</v>
+        <v>108.260178376266</v>
       </c>
       <c r="X5" t="n">
-        <v>45.53322502633155</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="Y5" t="n">
-        <v>45.53322502633155</v>
+        <v>68.2764642733967</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.69875944192644</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="C6" t="n">
-        <v>58.69875944192644</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="D6" t="n">
-        <v>30.83004705776872</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="E6" t="n">
-        <v>30.83004705776872</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="F6" t="n">
-        <v>30.83004705776872</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="G6" t="n">
-        <v>30.83004705776872</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="H6" t="n">
-        <v>30.83004705776872</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I6" t="n">
-        <v>2.961334673611005</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L6" t="n">
-        <v>28.41772601812563</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M6" t="n">
-        <v>28.41772601812563</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N6" t="n">
-        <v>28.41772601812563</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O6" t="n">
-        <v>55.73185102583861</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P6" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S6" t="n">
-        <v>86.56747182608416</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="T6" t="n">
-        <v>86.56747182608416</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="U6" t="n">
-        <v>86.56747182608416</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="V6" t="n">
-        <v>86.56747182608416</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="W6" t="n">
-        <v>58.69875944192644</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="X6" t="n">
-        <v>58.69875944192644</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.69875944192644</v>
+        <v>3.920842809732961</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.57035059274347</v>
+        <v>13.245045875396</v>
       </c>
       <c r="C7" t="n">
-        <v>52.57035059274347</v>
+        <v>13.245045875396</v>
       </c>
       <c r="D7" t="n">
-        <v>52.57035059274347</v>
+        <v>13.245045875396</v>
       </c>
       <c r="E7" t="n">
-        <v>52.57035059274347</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F7" t="n">
-        <v>52.57035059274347</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G7" t="n">
-        <v>52.57035059274347</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H7" t="n">
-        <v>52.57035059274347</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I7" t="n">
-        <v>52.57035059274347</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J7" t="n">
-        <v>24.70163820858575</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K7" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L7" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M7" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N7" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.87121125924466</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R7" t="n">
-        <v>77.87121125924466</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S7" t="n">
-        <v>52.57035059274347</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T7" t="n">
-        <v>52.57035059274347</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U7" t="n">
-        <v>52.57035059274347</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="V7" t="n">
-        <v>52.57035059274347</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="W7" t="n">
-        <v>52.57035059274347</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="X7" t="n">
-        <v>52.57035059274347</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="Y7" t="n">
-        <v>52.57035059274347</v>
+        <v>53.22875997826529</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95.20412760976917</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C8" t="n">
-        <v>95.20412760976917</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D8" t="n">
-        <v>95.20412760976917</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E8" t="n">
-        <v>95.20412760976917</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F8" t="n">
-        <v>55.22041350689989</v>
+        <v>18.62402077829578</v>
       </c>
       <c r="G8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J8" t="n">
         <v>3.166710156947247</v>
@@ -4808,46 +4808,46 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M8" t="n">
-        <v>79.95943146291799</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N8" t="n">
-        <v>79.95943146291799</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P8" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V8" t="n">
-        <v>148.2438924791353</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W8" t="n">
-        <v>148.2438924791353</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X8" t="n">
-        <v>135.1878417126385</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y8" t="n">
-        <v>95.20412760976917</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L9" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M9" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O9" t="n">
         <v>119.1474696551402</v>
@@ -4908,10 +4908,10 @@
         <v>158.3355078473624</v>
       </c>
       <c r="S9" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T9" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U9" t="n">
         <v>123.1178524655551</v>
@@ -4923,7 +4923,7 @@
         <v>43.15042425981653</v>
       </c>
       <c r="X9" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y9" t="n">
         <v>3.166710156947247</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K10" t="n">
         <v>3.166710156947247</v>
@@ -4978,34 +4978,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.46354404567346</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R10" t="n">
-        <v>65.64486044757699</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S10" t="n">
-        <v>25.66114634470771</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T10" t="n">
-        <v>25.66114634470771</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U10" t="n">
-        <v>25.66114634470771</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V10" t="n">
-        <v>25.66114634470771</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W10" t="n">
-        <v>25.66114634470771</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C11" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D11" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E11" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F11" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C11" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D11" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E11" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F11" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5063,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>941.8333189360916</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>931.6920173305816</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>931.6920173305816</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>931.6920173305816</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>729.788240827769</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>270.5349770855139</v>
+        <v>141.3758662447559</v>
       </c>
       <c r="C12" t="n">
-        <v>225.2410586451449</v>
+        <v>96.08194780438691</v>
       </c>
       <c r="D12" t="n">
-        <v>205.4657598246517</v>
+        <v>76.30664898389367</v>
       </c>
       <c r="E12" t="n">
-        <v>175.3874156599542</v>
+        <v>46.22830481919618</v>
       </c>
       <c r="F12" t="n">
         <v>28.85285768683918</v>
@@ -5121,16 +5121,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
         <v>712.019119383956</v>
@@ -5145,25 +5145,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>919.7989218020631</v>
+        <v>870.0480150555518</v>
       </c>
       <c r="T12" t="n">
-        <v>846.7714380015872</v>
+        <v>797.0205312550759</v>
       </c>
       <c r="U12" t="n">
-        <v>747.7069305787343</v>
+        <v>568.7969129914649</v>
       </c>
       <c r="V12" t="n">
-        <v>641.7139331877496</v>
+        <v>462.8039156004801</v>
       </c>
       <c r="W12" t="n">
-        <v>516.635687300306</v>
+        <v>337.7256697130366</v>
       </c>
       <c r="X12" t="n">
-        <v>437.9432979355312</v>
+        <v>259.0332803482618</v>
       </c>
       <c r="Y12" t="n">
-        <v>309.5912032648239</v>
+        <v>180.4320924240659</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>219.5976011435906</v>
+        <v>77.05918627181866</v>
       </c>
       <c r="C13" t="n">
-        <v>179.8205290564417</v>
+        <v>77.05918627181866</v>
       </c>
       <c r="D13" t="n">
-        <v>158.863000484864</v>
+        <v>77.05918627181866</v>
       </c>
       <c r="E13" t="n">
-        <v>140.109017743229</v>
+        <v>77.05918627181866</v>
       </c>
       <c r="F13" t="n">
-        <v>122.3781810860767</v>
+        <v>77.05918627181866</v>
       </c>
       <c r="G13" t="n">
-        <v>81.84943398899755</v>
+        <v>77.05918627181866</v>
       </c>
       <c r="H13" t="n">
         <v>47.14271401416003</v>
@@ -5197,7 +5197,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>53.44439932973364</v>
+        <v>53.44439932973363</v>
       </c>
       <c r="K13" t="n">
         <v>157.9864469571365</v>
@@ -5221,28 +5221,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R13" t="n">
-        <v>914.1320326370816</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S13" t="n">
-        <v>817.0117515213019</v>
+        <v>866.9368743948567</v>
       </c>
       <c r="T13" t="n">
-        <v>715.9227922324826</v>
+        <v>765.8479151060374</v>
       </c>
       <c r="U13" t="n">
-        <v>555.8707623091084</v>
+        <v>605.7958851826631</v>
       </c>
       <c r="V13" t="n">
-        <v>555.8707623091084</v>
+        <v>480.2705078175343</v>
       </c>
       <c r="W13" t="n">
-        <v>462.5508634931037</v>
+        <v>320.0124486213317</v>
       </c>
       <c r="X13" t="n">
-        <v>363.7204234358444</v>
+        <v>221.1820085640724</v>
       </c>
       <c r="Y13" t="n">
-        <v>272.0869551330723</v>
+        <v>129.5485402613003</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>530.7335734728065</v>
+        <v>953.8622900451744</v>
       </c>
       <c r="C14" t="n">
-        <v>530.7335734728065</v>
+        <v>953.8622900451744</v>
       </c>
       <c r="D14" t="n">
-        <v>530.7335734728065</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E14" t="n">
-        <v>287.2847968287064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>287.2847968287064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>43.83602018460635</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5300,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.8622900451744</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.8622900451744</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.8622900451744</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.8622900451744</v>
       </c>
       <c r="V14" t="n">
-        <v>774.1823501169065</v>
+        <v>953.8622900451744</v>
       </c>
       <c r="W14" t="n">
-        <v>774.1823501169065</v>
+        <v>953.8622900451744</v>
       </c>
       <c r="X14" t="n">
-        <v>774.1823501169065</v>
+        <v>953.8622900451744</v>
       </c>
       <c r="Y14" t="n">
-        <v>774.1823501169065</v>
+        <v>953.8622900451744</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>416.5176527046887</v>
+        <v>134.1414888050064</v>
       </c>
       <c r="C15" t="n">
-        <v>242.0646234235616</v>
+        <v>100.8765414737202</v>
       </c>
       <c r="D15" t="n">
-        <v>93.13021376231038</v>
+        <v>93.13021376230986</v>
       </c>
       <c r="E15" t="n">
-        <v>75.0808407066958</v>
+        <v>75.08084070669526</v>
       </c>
       <c r="F15" t="n">
         <v>19.28114311021272</v>
@@ -5358,22 +5358,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5385,22 +5385,22 @@
         <v>931.827892911146</v>
       </c>
       <c r="T15" t="n">
-        <v>870.829380219753</v>
+        <v>870.8293802197529</v>
       </c>
       <c r="U15" t="n">
-        <v>783.7938439059831</v>
+        <v>783.7938439059828</v>
       </c>
       <c r="V15" t="n">
-        <v>689.8298176240813</v>
+        <v>689.829817624081</v>
       </c>
       <c r="W15" t="n">
-        <v>576.7805428457207</v>
+        <v>576.7805428457202</v>
       </c>
       <c r="X15" t="n">
-        <v>510.1171245900288</v>
+        <v>368.9290426401874</v>
       </c>
       <c r="Y15" t="n">
-        <v>443.5449077749158</v>
+        <v>161.1687438752335</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>135.3948033800104</v>
+        <v>135.3948033800105</v>
       </c>
       <c r="C16" t="n">
-        <v>107.6467024019444</v>
+        <v>107.6467024019445</v>
       </c>
       <c r="D16" t="n">
-        <v>98.71814493944953</v>
+        <v>98.71814493944964</v>
       </c>
       <c r="E16" t="n">
-        <v>91.99313330689745</v>
+        <v>91.99313330689756</v>
       </c>
       <c r="F16" t="n">
-        <v>86.29126775882798</v>
+        <v>86.29126775882804</v>
       </c>
       <c r="G16" t="n">
-        <v>57.79149177083173</v>
+        <v>57.79149177083178</v>
       </c>
       <c r="H16" t="n">
-        <v>35.11374290507714</v>
+        <v>35.11374290507717</v>
       </c>
       <c r="I16" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>65.23399391374576</v>
+        <v>65.23399391374573</v>
       </c>
       <c r="K16" t="n">
         <v>181.5656361251608</v>
@@ -5443,16 +5443,16 @@
         <v>347.2582002519129</v>
       </c>
       <c r="M16" t="n">
-        <v>524.8246775631742</v>
+        <v>524.8246775631741</v>
       </c>
       <c r="N16" t="n">
-        <v>612.5772106655525</v>
+        <v>612.5772106655527</v>
       </c>
       <c r="O16" t="n">
-        <v>775.2949264194908</v>
+        <v>775.294926419491</v>
       </c>
       <c r="P16" t="n">
-        <v>910.9791392107745</v>
+        <v>910.9791392107746</v>
       </c>
       <c r="Q16" t="n">
         <v>964.0571555106362</v>
@@ -5461,25 +5461,25 @@
         <v>926.1610037461646</v>
       </c>
       <c r="S16" t="n">
-        <v>841.0696937394679</v>
+        <v>841.0696937394678</v>
       </c>
       <c r="T16" t="n">
-        <v>752.0097055597315</v>
+        <v>752.0097055597314</v>
       </c>
       <c r="U16" t="n">
-        <v>603.9866467454401</v>
+        <v>603.9866467454403</v>
       </c>
       <c r="V16" t="n">
-        <v>490.4902404893944</v>
+        <v>490.4902404893946</v>
       </c>
       <c r="W16" t="n">
-        <v>342.2611524022745</v>
+        <v>342.2611524022748</v>
       </c>
       <c r="X16" t="n">
-        <v>255.4596834540984</v>
+        <v>255.4596834540985</v>
       </c>
       <c r="Y16" t="n">
-        <v>175.8551862604091</v>
+        <v>175.8551862604093</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>758.9185507457601</v>
+        <v>740.5840015813544</v>
       </c>
       <c r="C17" t="n">
-        <v>758.9185507457601</v>
+        <v>740.5840015813544</v>
       </c>
       <c r="D17" t="n">
-        <v>758.9185507457601</v>
+        <v>740.5840015813544</v>
       </c>
       <c r="E17" t="n">
-        <v>758.9185507457601</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>515.4697741016601</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>272.0209974575599</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>80.50010435188568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
         <v>122.2961490211351</v>
@@ -5540,25 +5540,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>935.3864967959303</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>861.4201012171609</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>758.9185507457601</v>
+        <v>920.2639415096223</v>
       </c>
       <c r="V17" t="n">
-        <v>758.9185507457601</v>
+        <v>740.5840015813544</v>
       </c>
       <c r="W17" t="n">
-        <v>758.9185507457601</v>
+        <v>740.5840015813544</v>
       </c>
       <c r="X17" t="n">
-        <v>758.9185507457601</v>
+        <v>740.5840015813544</v>
       </c>
       <c r="Y17" t="n">
-        <v>758.9185507457601</v>
+        <v>740.5840015813544</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>254.6286299542397</v>
+        <v>50.20573256618982</v>
       </c>
       <c r="C18" t="n">
-        <v>231.5585480884154</v>
+        <v>27.13565070036552</v>
       </c>
       <c r="D18" t="n">
-        <v>231.5585480884154</v>
+        <v>27.13565070036552</v>
       </c>
       <c r="E18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,10 +5598,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="M18" t="n">
         <v>234.810827406191</v>
-      </c>
-      <c r="M18" t="n">
-        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
         <v>473.4149733950735</v>
@@ -5619,25 +5619,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>849.9577593177676</v>
+        <v>796.9178093450203</v>
       </c>
       <c r="T18" t="n">
-        <v>647.7711646765335</v>
+        <v>594.7312147037862</v>
       </c>
       <c r="U18" t="n">
-        <v>570.9304938282253</v>
+        <v>366.5075964401753</v>
       </c>
       <c r="V18" t="n">
-        <v>487.1613330117852</v>
+        <v>282.7384356237353</v>
       </c>
       <c r="W18" t="n">
-        <v>384.3069236988863</v>
+        <v>179.8840263108364</v>
       </c>
       <c r="X18" t="n">
-        <v>327.8383709086562</v>
+        <v>123.4154735206063</v>
       </c>
       <c r="Y18" t="n">
-        <v>271.461019559005</v>
+        <v>67.03812217095513</v>
       </c>
     </row>
     <row r="19">
@@ -5671,19 +5671,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>43.82549157211193</v>
+        <v>75.22598155644486</v>
       </c>
       <c r="K19" t="n">
         <v>170.1491214262261</v>
       </c>
       <c r="L19" t="n">
-        <v>345.8336731956772</v>
+        <v>197.4632464339391</v>
       </c>
       <c r="M19" t="n">
-        <v>385.0217113878994</v>
+        <v>236.6512846261613</v>
       </c>
       <c r="N19" t="n">
-        <v>577.0829888050739</v>
+        <v>428.7125620433358</v>
       </c>
       <c r="O19" t="n">
         <v>601.4222654399732</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>915.2791590291961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>697.699589504087</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>697.699589504087</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>697.699589504087</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>454.250812859987</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>210.8020362158869</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5750,7 +5750,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5789,13 +5789,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>915.2791590291961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>915.2791590291961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>915.2791590291961</v>
+        <v>741.395589047232</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>195.3106815977774</v>
+        <v>50.20573256618982</v>
       </c>
       <c r="C21" t="n">
-        <v>172.2405997319531</v>
+        <v>27.13565070036552</v>
       </c>
       <c r="D21" t="n">
-        <v>172.2405997319531</v>
+        <v>27.13565070036552</v>
       </c>
       <c r="E21" t="n">
-        <v>164.3860921418003</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5832,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>942.0227583766078</v>
       </c>
       <c r="T21" t="n">
-        <v>891.2191111506766</v>
+        <v>739.8361637353739</v>
       </c>
       <c r="U21" t="n">
-        <v>814.3784403023683</v>
+        <v>511.612545471763</v>
       </c>
       <c r="V21" t="n">
-        <v>579.2263320706256</v>
+        <v>282.7384356237353</v>
       </c>
       <c r="W21" t="n">
-        <v>476.3719227577267</v>
+        <v>179.8840263108364</v>
       </c>
       <c r="X21" t="n">
-        <v>419.9033699674966</v>
+        <v>123.4154735206063</v>
       </c>
       <c r="Y21" t="n">
-        <v>363.5260186178454</v>
+        <v>67.03812217095513</v>
       </c>
     </row>
     <row r="22">
@@ -5908,19 +5908,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>43.82549157211193</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>170.1491214262261</v>
+        <v>21.77869466448793</v>
       </c>
       <c r="L22" t="n">
-        <v>345.8336731956772</v>
+        <v>49.0928196722009</v>
       </c>
       <c r="M22" t="n">
-        <v>533.3921381496376</v>
+        <v>236.6512846261613</v>
       </c>
       <c r="N22" t="n">
-        <v>577.0829888050739</v>
+        <v>428.7125620433358</v>
       </c>
       <c r="O22" t="n">
         <v>601.4222654399732</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>826.8596021825315</v>
+        <v>949.5107484024593</v>
       </c>
       <c r="C23" t="n">
-        <v>826.8596021825315</v>
+        <v>731.9311788773502</v>
       </c>
       <c r="D23" t="n">
-        <v>619.9768509910838</v>
+        <v>525.0484276859024</v>
       </c>
       <c r="E23" t="n">
-        <v>619.9768509910838</v>
+        <v>290.6431225029609</v>
       </c>
       <c r="F23" t="n">
-        <v>360.373893616779</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="G23" t="n">
-        <v>92.25912637032906</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="H23" t="n">
-        <v>92.25912637032906</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="I23" t="n">
         <v>31.0401651286561</v>
@@ -5990,22 +5990,22 @@
         <v>167.5807954293279</v>
       </c>
       <c r="K23" t="n">
-        <v>413.5063964198274</v>
+        <v>418.9662281019884</v>
       </c>
       <c r="L23" t="n">
-        <v>593.582248004486</v>
+        <v>599.042079686647</v>
       </c>
       <c r="M23" t="n">
-        <v>958.9283020291284</v>
+        <v>816.0177069495511</v>
       </c>
       <c r="N23" t="n">
-        <v>1164.782824236368</v>
+        <v>1021.87222915679</v>
       </c>
       <c r="O23" t="n">
-        <v>1462.348201140754</v>
+        <v>1175.498139839677</v>
       </c>
       <c r="P23" t="n">
-        <v>1552.008256432805</v>
+        <v>1413.528621893466</v>
       </c>
       <c r="Q23" t="n">
         <v>1552.008256432805</v>
@@ -6014,25 +6014,25 @@
         <v>1552.008256432805</v>
       </c>
       <c r="S23" t="n">
-        <v>1492.259820427658</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="T23" t="n">
-        <v>1418.293424848888</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="U23" t="n">
-        <v>1418.293424848888</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="V23" t="n">
-        <v>1418.293424848888</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="W23" t="n">
-        <v>1300.83287939186</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="X23" t="n">
-        <v>1300.83287939186</v>
+        <v>1423.484025611788</v>
       </c>
       <c r="Y23" t="n">
-        <v>1062.076494831351</v>
+        <v>1184.727641051278</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>379.3263582422264</v>
+        <v>213.3477019999359</v>
       </c>
       <c r="C24" t="n">
-        <v>278.8828441756893</v>
+        <v>190.2776201341116</v>
       </c>
       <c r="D24" t="n">
-        <v>129.9484345144381</v>
+        <v>190.2776201341116</v>
       </c>
       <c r="E24" t="n">
-        <v>122.0939269242853</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="F24" t="n">
-        <v>122.0939269242853</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="G24" t="n">
-        <v>122.0939269242853</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="H24" t="n">
-        <v>122.0939269242853</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="I24" t="n">
-        <v>31.79429778144181</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="J24" t="n">
         <v>31.0401651286561</v>
@@ -6090,28 +6090,28 @@
         <v>1552.008256432805</v>
       </c>
       <c r="R24" t="n">
-        <v>1450.838726985691</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="S24" t="n">
-        <v>1277.42138243636</v>
+        <v>1378.590911883474</v>
       </c>
       <c r="T24" t="n">
-        <v>1075.234787795126</v>
+        <v>1176.40431724224</v>
       </c>
       <c r="U24" t="n">
-        <v>998.3941169468173</v>
+        <v>948.1806989786289</v>
       </c>
       <c r="V24" t="n">
-        <v>763.2420087150747</v>
+        <v>713.0285907468863</v>
       </c>
       <c r="W24" t="n">
-        <v>660.3875994021757</v>
+        <v>458.7912340186846</v>
       </c>
       <c r="X24" t="n">
-        <v>603.9190466119456</v>
+        <v>286.5574429543524</v>
       </c>
       <c r="Y24" t="n">
-        <v>547.5416952622944</v>
+        <v>230.1800916047012</v>
       </c>
     </row>
     <row r="25">
@@ -6151,16 +6151,16 @@
         <v>213.3086334290024</v>
       </c>
       <c r="L25" t="n">
-        <v>388.9931851984535</v>
+        <v>240.6227584367154</v>
       </c>
       <c r="M25" t="n">
-        <v>576.5516501524139</v>
+        <v>428.1812233906758</v>
       </c>
       <c r="N25" t="n">
-        <v>620.2425008078502</v>
+        <v>620.2425008078503</v>
       </c>
       <c r="O25" t="n">
-        <v>792.9522042044877</v>
+        <v>792.9522042044878</v>
       </c>
       <c r="P25" t="n">
         <v>821.9274918349602</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>817.8198602449438</v>
+        <v>1293.88278824121</v>
       </c>
       <c r="C26" t="n">
-        <v>817.8198602449438</v>
+        <v>1049.084044668959</v>
       </c>
       <c r="D26" t="n">
-        <v>586.9492780779082</v>
+        <v>814.9821194303695</v>
       </c>
       <c r="E26" t="n">
-        <v>586.9492780779082</v>
+        <v>553.3576402002861</v>
       </c>
       <c r="F26" t="n">
-        <v>586.9492780779082</v>
+        <v>414.8122417110625</v>
       </c>
       <c r="G26" t="n">
-        <v>331.755681427179</v>
+        <v>119.4783004174708</v>
       </c>
       <c r="H26" t="n">
-        <v>116.2469573459169</v>
+        <v>119.4783004174708</v>
       </c>
       <c r="I26" t="n">
         <v>31.0401651286561</v>
       </c>
       <c r="J26" t="n">
-        <v>144.0703222901543</v>
+        <v>140.9032829457242</v>
       </c>
       <c r="K26" t="n">
-        <v>371.9452818236412</v>
+        <v>243.9182888566466</v>
       </c>
       <c r="L26" t="n">
-        <v>552.0211334082998</v>
+        <v>535.1351509159582</v>
       </c>
       <c r="M26" t="n">
-        <v>768.9967606712039</v>
+        <v>873.8036924569969</v>
       </c>
       <c r="N26" t="n">
-        <v>1073.324135975376</v>
+        <v>1079.658214664236</v>
       </c>
       <c r="O26" t="n">
-        <v>1347.379039740589</v>
+        <v>1350.546079085019</v>
       </c>
       <c r="P26" t="n">
-        <v>1437.03909503264</v>
+        <v>1440.20613437707</v>
       </c>
       <c r="Q26" t="n">
         <v>1552.008256432805</v>
       </c>
       <c r="R26" t="n">
-        <v>1552.008256432805</v>
+        <v>1524.789082385663</v>
       </c>
       <c r="S26" t="n">
-        <v>1552.008256432805</v>
+        <v>1524.789082385663</v>
       </c>
       <c r="T26" t="n">
-        <v>1552.008256432805</v>
+        <v>1423.603512759752</v>
       </c>
       <c r="U26" t="n">
-        <v>1552.008256432805</v>
+        <v>1293.88278824121</v>
       </c>
       <c r="V26" t="n">
-        <v>1552.008256432805</v>
+        <v>1293.88278824121</v>
       </c>
       <c r="W26" t="n">
-        <v>1326.634717602406</v>
+        <v>1293.88278824121</v>
       </c>
       <c r="X26" t="n">
-        <v>1080.564075781041</v>
+        <v>1293.88278824121</v>
       </c>
       <c r="Y26" t="n">
-        <v>817.8198602449438</v>
+        <v>1293.88278824121</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>365.6236250036793</v>
+        <v>247.4554181326128</v>
       </c>
       <c r="C27" t="n">
-        <v>318.5657121622671</v>
+        <v>197.1661622196467</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0264189407307</v>
+        <v>172.3955259265564</v>
       </c>
       <c r="E27" t="n">
-        <v>265.1840803749901</v>
+        <v>137.3218442892618</v>
       </c>
       <c r="F27" t="n">
-        <v>246.0446388415899</v>
+        <v>114.9510596843078</v>
       </c>
       <c r="G27" t="n">
-        <v>234.7089298639203</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="H27" t="n">
-        <v>121.3397942714996</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="I27" t="n">
         <v>31.0401651286561</v>
@@ -6327,28 +6327,28 @@
         <v>1552.008256432805</v>
       </c>
       <c r="R27" t="n">
-        <v>1450.838726985691</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="S27" t="n">
-        <v>1404.816498876075</v>
+        <v>1502.754685251635</v>
       </c>
       <c r="T27" t="n">
-        <v>1330.025020674555</v>
+        <v>1300.568090610401</v>
       </c>
       <c r="U27" t="n">
-        <v>1229.196518850659</v>
+        <v>1196.508245714951</v>
       </c>
       <c r="V27" t="n">
-        <v>1121.439527058632</v>
+        <v>961.3561374832082</v>
       </c>
       <c r="W27" t="n">
-        <v>867.2021703304301</v>
+        <v>707.1187807550066</v>
       </c>
       <c r="X27" t="n">
-        <v>741.5992607887013</v>
+        <v>499.2672805494738</v>
       </c>
       <c r="Y27" t="n">
-        <v>533.8389620237473</v>
+        <v>291.5069817845198</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>184.5123466208346</v>
+        <v>108.8811033456423</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9712801326425</v>
+        <v>108.8811033456423</v>
       </c>
       <c r="D28" t="n">
-        <v>142.9712801326425</v>
+        <v>108.8811033456423</v>
       </c>
       <c r="E28" t="n">
-        <v>122.4533029899643</v>
+        <v>108.8811033456423</v>
       </c>
       <c r="F28" t="n">
-        <v>102.9584719317688</v>
+        <v>108.8811033456423</v>
       </c>
       <c r="G28" t="n">
-        <v>60.66573043364657</v>
+        <v>103.5991309526351</v>
       </c>
       <c r="H28" t="n">
-        <v>60.66573043364657</v>
+        <v>63.89707350520048</v>
       </c>
       <c r="I28" t="n">
         <v>31.0401651286561</v>
       </c>
       <c r="J28" t="n">
-        <v>63.4745304357146</v>
+        <v>60.3074910912846</v>
       </c>
       <c r="K28" t="n">
-        <v>166.2876871506551</v>
+        <v>159.9536084617951</v>
       </c>
       <c r="L28" t="n">
-        <v>318.4617657809326</v>
+        <v>308.9606477476427</v>
       </c>
       <c r="M28" t="n">
-        <v>482.5097575957193</v>
+        <v>469.8416002179994</v>
       </c>
       <c r="N28" t="n">
-        <v>651.0605618737202</v>
+        <v>635.2253651515703</v>
       </c>
       <c r="O28" t="n">
-        <v>800.259792131184</v>
+        <v>781.257556064604</v>
       </c>
       <c r="P28" t="n">
-        <v>922.4255194259931</v>
+        <v>900.2562440149832</v>
       </c>
       <c r="Q28" t="n">
-        <v>961.9850502293802</v>
+        <v>936.6487354739403</v>
       </c>
       <c r="R28" t="n">
-        <v>910.2959329547825</v>
+        <v>881.7282751277886</v>
       </c>
       <c r="S28" t="n">
-        <v>811.4116574379598</v>
+        <v>779.6126565394119</v>
       </c>
       <c r="T28" t="n">
-        <v>708.5587037480974</v>
+        <v>673.5283597779955</v>
       </c>
       <c r="U28" t="n">
-        <v>546.7426794236801</v>
+        <v>508.4809923820243</v>
       </c>
       <c r="V28" t="n">
-        <v>419.4533076575081</v>
+        <v>377.9602775442984</v>
       </c>
       <c r="W28" t="n">
-        <v>378.5042437829522</v>
+        <v>212.7068808754987</v>
       </c>
       <c r="X28" t="n">
-        <v>277.9098093246498</v>
+        <v>108.8811033456423</v>
       </c>
       <c r="Y28" t="n">
-        <v>184.5123466208346</v>
+        <v>108.8811033456423</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>583.811598005465</v>
+        <v>545.0364469071843</v>
       </c>
       <c r="C29" t="n">
-        <v>583.811598005465</v>
+        <v>313.3059048785907</v>
       </c>
       <c r="D29" t="n">
-        <v>583.811598005465</v>
+        <v>313.3059048785907</v>
       </c>
       <c r="E29" t="n">
-        <v>335.2553203190388</v>
+        <v>313.3059048785907</v>
       </c>
       <c r="F29" t="n">
-        <v>61.50139044124933</v>
+        <v>313.3059048785907</v>
       </c>
       <c r="G29" t="n">
         <v>31.0401651286561</v>
@@ -6464,22 +6464,22 @@
         <v>153.7114272786625</v>
       </c>
       <c r="K29" t="n">
-        <v>256.7264331895849</v>
+        <v>391.2274918006577</v>
       </c>
       <c r="L29" t="n">
-        <v>436.8022847742435</v>
+        <v>705.8044019963891</v>
       </c>
       <c r="M29" t="n">
-        <v>788.2789706482206</v>
+        <v>922.7800292592932</v>
       </c>
       <c r="N29" t="n">
-        <v>1128.634551466533</v>
+        <v>1128.634551466532</v>
       </c>
       <c r="O29" t="n">
-        <v>1412.330560220254</v>
+        <v>1337.73793475208</v>
       </c>
       <c r="P29" t="n">
-        <v>1501.990615512304</v>
+        <v>1427.397990044131</v>
       </c>
       <c r="Q29" t="n">
         <v>1552.008256432805</v>
@@ -6488,25 +6488,25 @@
         <v>1537.85728392932</v>
       </c>
       <c r="S29" t="n">
-        <v>1537.85728392932</v>
+        <v>1463.957875420689</v>
       </c>
       <c r="T29" t="n">
-        <v>1537.85728392932</v>
+        <v>1375.840507338435</v>
       </c>
       <c r="U29" t="n">
-        <v>1537.85728392932</v>
+        <v>1259.187984363549</v>
       </c>
       <c r="V29" t="n">
-        <v>1537.85728392932</v>
+        <v>1065.357071931797</v>
       </c>
       <c r="W29" t="n">
-        <v>1322.320603571024</v>
+        <v>849.8203915735006</v>
       </c>
       <c r="X29" t="n">
-        <v>1086.086820221763</v>
+        <v>794.4043120594881</v>
       </c>
       <c r="Y29" t="n">
-        <v>833.1794631577689</v>
+        <v>794.4043120594881</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>453.6713075549815</v>
+        <v>661.6984675551713</v>
       </c>
       <c r="C30" t="n">
-        <v>416.4502531856725</v>
+        <v>487.2454382740443</v>
       </c>
       <c r="D30" t="n">
-        <v>267.5158435244212</v>
+        <v>338.3110286127931</v>
       </c>
       <c r="E30" t="n">
-        <v>245.5103634307837</v>
+        <v>179.0735736073376</v>
       </c>
       <c r="F30" t="n">
-        <v>236.2077803694867</v>
+        <v>32.53901563422254</v>
       </c>
       <c r="G30" t="n">
-        <v>234.7089298639203</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="H30" t="n">
-        <v>121.3397942714996</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="I30" t="n">
         <v>31.0401651286561</v>
@@ -6567,25 +6567,25 @@
         <v>1552.008256432805</v>
       </c>
       <c r="S30" t="n">
-        <v>1378.590911883474</v>
+        <v>1479.165406851425</v>
       </c>
       <c r="T30" t="n">
-        <v>1206.183627121819</v>
+        <v>1414.210787122009</v>
       </c>
       <c r="U30" t="n">
-        <v>1115.191983770026</v>
+        <v>1323.219143770216</v>
       </c>
       <c r="V30" t="n">
-        <v>1017.271850450102</v>
+        <v>1225.299010450291</v>
       </c>
       <c r="W30" t="n">
-        <v>763.0344937219002</v>
+        <v>1108.293628633908</v>
       </c>
       <c r="X30" t="n">
-        <v>555.1829935163673</v>
+        <v>1037.674103340193</v>
       </c>
       <c r="Y30" t="n">
-        <v>484.6546696632315</v>
+        <v>829.9138045752393</v>
       </c>
     </row>
     <row r="31">
@@ -6625,7 +6625,7 @@
         <v>185.5698971276718</v>
       </c>
       <c r="L31" t="n">
-        <v>347.3850807464569</v>
+        <v>347.3850807464574</v>
       </c>
       <c r="M31" t="n">
         <v>521.0741775497522</v>
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>897.9905812787421</v>
+        <v>1013.423661711201</v>
       </c>
       <c r="C32" t="n">
-        <v>845.6411680022197</v>
+        <v>861.7978833599891</v>
       </c>
       <c r="D32" t="n">
-        <v>707.9435510562229</v>
+        <v>720.8689233424384</v>
       </c>
       <c r="E32" t="n">
-        <v>542.7233801187323</v>
+        <v>552.4174093333939</v>
       </c>
       <c r="F32" t="n">
-        <v>352.3055569898784</v>
+        <v>358.7682431329861</v>
       </c>
       <c r="G32" t="n">
-        <v>153.3759239888794</v>
+        <v>156.6072670604333</v>
       </c>
       <c r="H32" t="n">
         <v>31.0401651286561</v>
       </c>
       <c r="I32" t="n">
-        <v>38.84781128965888</v>
+        <v>35.68077194522892</v>
       </c>
       <c r="J32" t="n">
-        <v>243.1967916642971</v>
+        <v>236.8627129754372</v>
       </c>
       <c r="K32" t="n">
-        <v>346.2117975752195</v>
+        <v>339.8777188863595</v>
       </c>
       <c r="L32" t="n">
-        <v>526.287649159878</v>
+        <v>519.9535704710181</v>
       </c>
       <c r="M32" t="n">
-        <v>743.2632764227822</v>
+        <v>736.9291977339223</v>
       </c>
       <c r="N32" t="n">
-        <v>1039.056916310834</v>
+        <v>942.7837199411615</v>
       </c>
       <c r="O32" t="n">
-        <v>1188.251866453482</v>
+        <v>1091.978670083809</v>
       </c>
       <c r="P32" t="n">
-        <v>1277.911921745533</v>
+        <v>1394.650462867135</v>
       </c>
       <c r="Q32" t="n">
-        <v>1484.199906358838</v>
+        <v>1481.285077102377</v>
       </c>
       <c r="R32" t="n">
-        <v>1552.008256432805</v>
+        <v>1545.926387831913</v>
       </c>
       <c r="S32" t="n">
         <v>1552.008256432805</v>
@@ -6731,19 +6731,19 @@
         <v>1552.008256432805</v>
       </c>
       <c r="U32" t="n">
-        <v>1518.691840206855</v>
+        <v>1515.460497135301</v>
       </c>
       <c r="V32" t="n">
-        <v>1518.691840206855</v>
+        <v>1401.73434838093</v>
       </c>
       <c r="W32" t="n">
-        <v>1386.491266597494</v>
+        <v>1401.73434838093</v>
       </c>
       <c r="X32" t="n">
-        <v>1233.593589997168</v>
+        <v>1245.60532870905</v>
       </c>
       <c r="Y32" t="n">
-        <v>1064.02233968211</v>
+        <v>1072.802735322438</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>162.5779872618372</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="C33" t="n">
-        <v>162.5779872618372</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="D33" t="n">
-        <v>162.5779872618372</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="E33" t="n">
-        <v>121.3397942714996</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="F33" t="n">
-        <v>121.3397942714996</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="G33" t="n">
-        <v>121.3397942714996</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="H33" t="n">
-        <v>121.3397942714996</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="I33" t="n">
         <v>31.0401651286561</v>
@@ -6810,19 +6810,19 @@
         <v>1075.234787795126</v>
       </c>
       <c r="U33" t="n">
-        <v>1067.579251192268</v>
+        <v>1064.347908120714</v>
       </c>
       <c r="V33" t="n">
-        <v>832.4271429605255</v>
+        <v>869.1046578474125</v>
       </c>
       <c r="W33" t="n">
-        <v>578.189786232324</v>
+        <v>614.8673011192109</v>
       </c>
       <c r="X33" t="n">
-        <v>370.3382860267911</v>
+        <v>407.015800913678</v>
       </c>
       <c r="Y33" t="n">
-        <v>162.5779872618372</v>
+        <v>199.2555021487241</v>
       </c>
     </row>
     <row r="34">
@@ -6853,52 +6853,52 @@
         <v>31.0401651286561</v>
       </c>
       <c r="I34" t="n">
-        <v>91.15369414775196</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="J34" t="n">
-        <v>91.15369414775196</v>
+        <v>113.7730956486292</v>
       </c>
       <c r="K34" t="n">
-        <v>91.15369414775196</v>
+        <v>113.7730956486292</v>
       </c>
       <c r="L34" t="n">
-        <v>118.4678191554649</v>
+        <v>141.0872206563421</v>
       </c>
       <c r="M34" t="n">
-        <v>157.6558573476871</v>
+        <v>180.2752588485643</v>
       </c>
       <c r="N34" t="n">
-        <v>201.3467080031234</v>
+        <v>223.9661095040006</v>
       </c>
       <c r="O34" t="n">
-        <v>225.6859846380227</v>
+        <v>248.3053861388999</v>
       </c>
       <c r="P34" t="n">
-        <v>225.6859846380227</v>
+        <v>248.3053861388999</v>
       </c>
       <c r="Q34" t="n">
-        <v>225.6859846380227</v>
+        <v>248.3053861388999</v>
       </c>
       <c r="R34" t="n">
-        <v>225.6859846380227</v>
+        <v>248.3053861388999</v>
       </c>
       <c r="S34" t="n">
-        <v>219.9746743422387</v>
+        <v>239.362732771562</v>
       </c>
       <c r="T34" t="n">
-        <v>210.2946858734151</v>
+        <v>226.4514012311845</v>
       </c>
       <c r="U34" t="n">
-        <v>141.6516267700365</v>
+        <v>154.576999056252</v>
       </c>
       <c r="V34" t="n">
-        <v>107.5352202249032</v>
+        <v>117.2292494395649</v>
       </c>
       <c r="W34" t="n">
-        <v>38.68613184869626</v>
+        <v>45.14881799180402</v>
       </c>
       <c r="X34" t="n">
-        <v>31.26466261143256</v>
+        <v>34.49600568298644</v>
       </c>
       <c r="Y34" t="n">
         <v>31.0401651286561</v>
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>696.1845290377795</v>
+        <v>828.6252388297219</v>
       </c>
       <c r="C35" t="n">
-        <v>696.1845290377795</v>
+        <v>828.6252388297219</v>
       </c>
       <c r="D35" t="n">
-        <v>696.1845290377795</v>
+        <v>709.109901323995</v>
       </c>
       <c r="E35" t="n">
-        <v>530.9643581002889</v>
+        <v>540.6583873149506</v>
       </c>
       <c r="F35" t="n">
-        <v>340.546534971435</v>
+        <v>347.0092211145428</v>
       </c>
       <c r="G35" t="n">
-        <v>141.616901970436</v>
+        <v>144.8482450419899</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K35" t="n">
         <v>122.2961490211351</v>
@@ -6974,13 +6974,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>831.8565819012757</v>
+        <v>828.6252388297219</v>
       </c>
       <c r="X35" t="n">
-        <v>831.8565819012757</v>
+        <v>828.6252388297219</v>
       </c>
       <c r="Y35" t="n">
-        <v>831.8565819012757</v>
+        <v>828.6252388297219</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>466.183833194304</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="C36" t="n">
-        <v>466.183833194304</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="D36" t="n">
-        <v>317.2494235330527</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E36" t="n">
-        <v>158.0119685275972</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>621.8469951458151</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>855.2320894606646</v>
+        <v>801.5287798475777</v>
       </c>
       <c r="V36" t="n">
-        <v>840.6480628896755</v>
+        <v>566.376671615835</v>
       </c>
       <c r="W36" t="n">
-        <v>673.9441319592579</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="X36" t="n">
-        <v>673.9441319592579</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="Y36" t="n">
-        <v>466.183833194304</v>
+        <v>529.4760534768332</v>
       </c>
     </row>
     <row r="37">
@@ -7069,73 +7069,73 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>54.25922022136947</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>54.25922022136947</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>64.52279360230889</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>64.52279360230889</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>64.52279360230889</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>64.52279360230889</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>64.52279360230889</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>64.52279360230889</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>64.52279360230889</v>
       </c>
       <c r="K37" t="n">
-        <v>79.39467212930859</v>
+        <v>64.52279360230889</v>
       </c>
       <c r="L37" t="n">
-        <v>106.7087971370216</v>
+        <v>91.83691861002187</v>
       </c>
       <c r="M37" t="n">
-        <v>145.8968353292437</v>
+        <v>131.024956802244</v>
       </c>
       <c r="N37" t="n">
-        <v>189.58768598468</v>
+        <v>174.7158074576804</v>
       </c>
       <c r="O37" t="n">
-        <v>213.9269626195793</v>
+        <v>199.0550840925796</v>
       </c>
       <c r="P37" t="n">
-        <v>213.9269626195793</v>
+        <v>199.0550840925796</v>
       </c>
       <c r="Q37" t="n">
-        <v>213.9269626195793</v>
+        <v>199.0550840925796</v>
       </c>
       <c r="R37" t="n">
-        <v>213.9269626195793</v>
+        <v>236.5463641204565</v>
       </c>
       <c r="S37" t="n">
-        <v>208.2156523237953</v>
+        <v>227.6037107531186</v>
       </c>
       <c r="T37" t="n">
-        <v>198.5356638549717</v>
+        <v>214.6923792127411</v>
       </c>
       <c r="U37" t="n">
-        <v>129.8926047515931</v>
+        <v>142.8179770378086</v>
       </c>
       <c r="V37" t="n">
-        <v>95.77619820645987</v>
+        <v>105.4702274211215</v>
       </c>
       <c r="W37" t="n">
-        <v>26.92710983025288</v>
+        <v>33.38979597336066</v>
       </c>
       <c r="X37" t="n">
-        <v>19.50564059298918</v>
+        <v>22.73698366454307</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>458.1558956235812</v>
+        <v>522.222311105967</v>
       </c>
       <c r="C38" t="n">
-        <v>458.1558956235812</v>
+        <v>522.222311105967</v>
       </c>
       <c r="D38" t="n">
-        <v>320.4582786775843</v>
+        <v>381.2933510884163</v>
       </c>
       <c r="E38" t="n">
-        <v>320.4582786775843</v>
+        <v>212.8418370793718</v>
       </c>
       <c r="F38" t="n">
-        <v>130.0404555487304</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7202,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>959.2758941773178</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>925.9594779513679</v>
+        <v>927.5093962131324</v>
       </c>
       <c r="V38" t="n">
-        <v>925.9594779513679</v>
+        <v>813.7832474587615</v>
       </c>
       <c r="W38" t="n">
-        <v>793.7589043420074</v>
+        <v>678.3513307778471</v>
       </c>
       <c r="X38" t="n">
-        <v>793.7589043420074</v>
+        <v>522.222311105967</v>
       </c>
       <c r="Y38" t="n">
-        <v>624.1876540269493</v>
+        <v>522.222311105967</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>178.5185981156682</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C39" t="n">
-        <v>178.5185981156682</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7257,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>580.7976797172138</v>
+        <v>757.1511268017528</v>
       </c>
       <c r="V39" t="n">
-        <v>566.2136531462247</v>
+        <v>521.9990185700101</v>
       </c>
       <c r="W39" t="n">
-        <v>532.5443780787767</v>
+        <v>278.55024192591</v>
       </c>
       <c r="X39" t="n">
-        <v>532.5443780787767</v>
+        <v>278.55024192591</v>
       </c>
       <c r="Y39" t="n">
-        <v>346.7339351357363</v>
+        <v>278.55024192591</v>
       </c>
     </row>
     <row r="40">
@@ -7306,73 +7306,73 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>54.25922022136947</v>
       </c>
       <c r="C40" t="n">
-        <v>23.82079607596913</v>
+        <v>54.25922022136947</v>
       </c>
       <c r="D40" t="n">
-        <v>23.82079607596913</v>
+        <v>54.25922022136947</v>
       </c>
       <c r="E40" t="n">
-        <v>23.82079607596913</v>
+        <v>102.0140736301858</v>
       </c>
       <c r="F40" t="n">
-        <v>23.82079607596913</v>
+        <v>102.0140736301858</v>
       </c>
       <c r="G40" t="n">
-        <v>23.82079607596913</v>
+        <v>102.0140736301858</v>
       </c>
       <c r="H40" t="n">
-        <v>79.39467212930859</v>
+        <v>102.0140736301858</v>
       </c>
       <c r="I40" t="n">
-        <v>79.39467212930859</v>
+        <v>102.0140736301858</v>
       </c>
       <c r="J40" t="n">
-        <v>79.39467212930859</v>
+        <v>102.0140736301858</v>
       </c>
       <c r="K40" t="n">
-        <v>79.39467212930859</v>
+        <v>102.0140736301858</v>
       </c>
       <c r="L40" t="n">
-        <v>106.7087971370216</v>
+        <v>129.3281986378988</v>
       </c>
       <c r="M40" t="n">
-        <v>145.8968353292437</v>
+        <v>168.5162368301209</v>
       </c>
       <c r="N40" t="n">
-        <v>189.58768598468</v>
+        <v>212.2070874855573</v>
       </c>
       <c r="O40" t="n">
-        <v>213.9269626195793</v>
+        <v>236.5463641204565</v>
       </c>
       <c r="P40" t="n">
-        <v>213.9269626195793</v>
+        <v>236.5463641204565</v>
       </c>
       <c r="Q40" t="n">
-        <v>213.9269626195793</v>
+        <v>236.5463641204565</v>
       </c>
       <c r="R40" t="n">
-        <v>213.9269626195793</v>
+        <v>236.5463641204565</v>
       </c>
       <c r="S40" t="n">
-        <v>208.2156523237953</v>
+        <v>227.6037107531186</v>
       </c>
       <c r="T40" t="n">
-        <v>198.5356638549717</v>
+        <v>214.6923792127411</v>
       </c>
       <c r="U40" t="n">
-        <v>129.8926047515931</v>
+        <v>142.8179770378086</v>
       </c>
       <c r="V40" t="n">
-        <v>95.77619820645987</v>
+        <v>105.4702274211215</v>
       </c>
       <c r="W40" t="n">
-        <v>26.92710983025288</v>
+        <v>33.38979597336066</v>
       </c>
       <c r="X40" t="n">
-        <v>19.50564059298918</v>
+        <v>22.73698366454307</v>
       </c>
       <c r="Y40" t="n">
         <v>19.28114311021272</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>830.3109621522655</v>
+        <v>603.3838032598051</v>
       </c>
       <c r="C41" t="n">
-        <v>830.3109621522655</v>
+        <v>603.3838032598051</v>
       </c>
       <c r="D41" t="n">
-        <v>587.4420653410984</v>
+        <v>603.3838032598051</v>
       </c>
       <c r="E41" t="n">
-        <v>587.4420653410984</v>
+        <v>603.3838032598051</v>
       </c>
       <c r="F41" t="n">
-        <v>343.9932886969984</v>
+        <v>359.935026615705</v>
       </c>
       <c r="G41" t="n">
-        <v>343.9932886969984</v>
+        <v>116.4862499716049</v>
       </c>
       <c r="H41" t="n">
         <v>116.4862499716049</v>
@@ -7433,28 +7433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>942.5671615287715</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>846.8325799039051</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>846.8325799039051</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>846.8325799039051</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>846.8325799039051</v>
       </c>
       <c r="W41" t="n">
-        <v>830.3109621522655</v>
+        <v>846.8325799039051</v>
       </c>
       <c r="X41" t="n">
-        <v>830.3109621522655</v>
+        <v>603.3838032598051</v>
       </c>
       <c r="Y41" t="n">
-        <v>830.3109621522655</v>
+        <v>603.3838032598051</v>
       </c>
     </row>
     <row r="42">
@@ -7491,10 +7491,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
         <v>234.810827406191</v>
@@ -7521,7 +7521,7 @@
         <v>819.246819911238</v>
       </c>
       <c r="U42" t="n">
-        <v>706.4200034432104</v>
+        <v>706.4200034432106</v>
       </c>
       <c r="V42" t="n">
         <v>586.6646970070512</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>72.82052424253618</v>
+        <v>315.9337644598126</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>262.3943833274892</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>227.6745457107369</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>195.1582539239272</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>163.6651082216003</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>109.3740520793467</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>60.9050230593346</v>
       </c>
       <c r="I43" t="n">
         <v>19.28114311021272</v>
@@ -7591,28 +7591,28 @@
         <v>856.1496427492311</v>
       </c>
       <c r="R43" t="n">
-        <v>856.1496427492311</v>
+        <v>800.8892594940961</v>
       </c>
       <c r="S43" t="n">
-        <v>856.1496427492311</v>
+        <v>800.8892594940961</v>
       </c>
       <c r="T43" t="n">
-        <v>844.1831073478023</v>
+        <v>800.8892594940961</v>
       </c>
       <c r="U43" t="n">
-        <v>670.3687683792535</v>
+        <v>800.8892594940961</v>
       </c>
       <c r="V43" t="n">
-        <v>531.0810819689501</v>
+        <v>661.6015730837927</v>
       </c>
       <c r="W43" t="n">
-        <v>357.0607137275729</v>
+        <v>487.5812048424155</v>
       </c>
       <c r="X43" t="n">
-        <v>244.4679646251391</v>
+        <v>487.5812048424155</v>
       </c>
       <c r="Y43" t="n">
-        <v>139.0721872771924</v>
+        <v>382.1854274944689</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>381.8008561968911</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C44" t="n">
-        <v>381.8008561968911</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D44" t="n">
-        <v>381.8008561968911</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E44" t="n">
-        <v>381.8008561968911</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>381.8008561968911</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>138.352079552791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>138.352079552791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7676,22 +7676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>868.6984094850911</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>868.6984094850911</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>868.6984094850911</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>625.2496328409911</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>381.8008561968911</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>381.8008561968911</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>339.3547227545824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>258.4326656878528</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>203.0292282409989</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>137.3227454499408</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>84.31915969122311</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>39.11930648823601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
         <v>19.28114311021272</v>
@@ -7731,16 +7731,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7749,28 +7749,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>956.4185982779193</v>
+        <v>953.1872552063654</v>
       </c>
       <c r="S45" t="n">
-        <v>956.4185982779193</v>
+        <v>870.0695397998778</v>
       </c>
       <c r="T45" t="n">
-        <v>956.4185982779193</v>
+        <v>758.1825743014874</v>
       </c>
       <c r="U45" t="n">
-        <v>821.7259522287058</v>
+        <v>620.25858518072</v>
       </c>
       <c r="V45" t="n">
-        <v>803.2953266157492</v>
+        <v>475.4061060918208</v>
       </c>
       <c r="W45" t="n">
-        <v>642.588942101945</v>
+        <v>311.4683785064627</v>
       </c>
       <c r="X45" t="n">
-        <v>528.2684141108095</v>
+        <v>193.9165074437734</v>
       </c>
       <c r="Y45" t="n">
-        <v>414.0390875602531</v>
+        <v>76.45583782166302</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>283.6447183331543</v>
+        <v>352.4087339645064</v>
       </c>
       <c r="C46" t="n">
-        <v>283.6447183331543</v>
+        <v>273.772180179443</v>
       </c>
       <c r="D46" t="n">
-        <v>283.6447183331543</v>
+        <v>273.772180179443</v>
       </c>
       <c r="E46" t="n">
-        <v>229.2625969651586</v>
+        <v>216.1587157398934</v>
       </c>
       <c r="F46" t="n">
-        <v>229.2625969651586</v>
+        <v>159.5683973848266</v>
       </c>
       <c r="G46" t="n">
-        <v>153.1057112417188</v>
+        <v>159.5683973848266</v>
       </c>
       <c r="H46" t="n">
-        <v>82.77085264052067</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -7807,49 +7807,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>88.90405206991957</v>
+        <v>85.73701272548962</v>
       </c>
       <c r="L46" t="n">
-        <v>207.8878829449634</v>
+        <v>201.5538042561035</v>
       </c>
       <c r="M46" t="n">
-        <v>338.7456270045165</v>
+        <v>329.2445089712266</v>
       </c>
       <c r="N46" t="n">
-        <v>474.1061835272836</v>
+        <v>461.4380261495638</v>
       </c>
       <c r="O46" t="n">
-        <v>590.1151660295138</v>
+        <v>574.279969307364</v>
       </c>
       <c r="P46" t="n">
-        <v>679.0906455690892</v>
+        <v>660.0884095025095</v>
       </c>
       <c r="Q46" t="n">
-        <v>685.4599286172427</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="R46" t="n">
-        <v>685.4599286172427</v>
+        <v>574.5060486347639</v>
       </c>
       <c r="S46" t="n">
-        <v>685.4599286172427</v>
+        <v>574.5060486347639</v>
       </c>
       <c r="T46" t="n">
-        <v>548.7428307020627</v>
+        <v>434.5576076480302</v>
       </c>
       <c r="U46" t="n">
-        <v>353.0626621523279</v>
+        <v>434.5576076480302</v>
       </c>
       <c r="V46" t="n">
-        <v>353.0626621523279</v>
+        <v>434.5576076480302</v>
       </c>
       <c r="W46" t="n">
-        <v>353.0626621523279</v>
+        <v>434.5576076480302</v>
       </c>
       <c r="X46" t="n">
-        <v>353.0626621523279</v>
+        <v>434.5576076480302</v>
       </c>
       <c r="Y46" t="n">
-        <v>353.0626621523279</v>
+        <v>434.5576076480302</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>257.9362584875889</v>
+        <v>267.3761202673527</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>266.4429506366708</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>265.6319414096423</v>
       </c>
       <c r="P2" t="n">
-        <v>257.7082725202194</v>
+        <v>268.2628827953495</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>165.4314642346751</v>
+        <v>174.8713260144389</v>
       </c>
       <c r="L3" t="n">
-        <v>166.1444050401903</v>
+        <v>175.5842668199541</v>
       </c>
       <c r="M3" t="n">
-        <v>169.7240591823345</v>
+        <v>179.1639209620982</v>
       </c>
       <c r="N3" t="n">
-        <v>157.8169888482831</v>
+        <v>166.8754420712888</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8143,10 +8143,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>166.5158092079212</v>
+        <v>175.955670987685</v>
       </c>
       <c r="N4" t="n">
-        <v>155.2755697255493</v>
+        <v>164.7154315053131</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>247.6798763052967</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L5" t="n">
-        <v>262.2416917349371</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O5" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P5" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>164.3167157393088</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>170.1862697047606</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P6" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,10 +8380,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8456,19 +8456,19 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>273.750943367713</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O8" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L9" t="n">
         <v>178.1382567417148</v>
@@ -8544,7 +8544,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>173.5582843761708</v>
@@ -8769,19 +8769,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133073</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,13 +9246,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,16 +9489,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -10677,13 +10677,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10905,7 +10905,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>233.2169876979182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11379,19 +11379,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M45" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23258,19 +23258,19 @@
         <v>254.8663219311301</v>
       </c>
       <c r="C11" t="n">
-        <v>237.4053720386571</v>
+        <v>25.11998639521511</v>
       </c>
       <c r="D11" t="n">
         <v>226.8155218883325</v>
       </c>
       <c r="E11" t="n">
-        <v>254.0628503399113</v>
+        <v>13.04856146225228</v>
       </c>
       <c r="F11" t="n">
         <v>37.99423713170194</v>
       </c>
       <c r="G11" t="n">
-        <v>287.4352177827846</v>
+        <v>46.42092890512555</v>
       </c>
       <c r="H11" t="n">
         <v>211.6072823834167</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>22.00159820879924</v>
       </c>
       <c r="S11" t="n">
-        <v>71.11266126444004</v>
+        <v>81.1525498538949</v>
       </c>
       <c r="T11" t="n">
         <v>95.22832983178091</v>
@@ -23315,16 +23315,16 @@
         <v>123.4781331754861</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>199.8847387377845</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>221.3734489850626</v>
       </c>
       <c r="X11" t="n">
         <v>241.8635809461186</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.35613004604409</v>
+        <v>258.3704189237031</v>
       </c>
     </row>
     <row r="12">
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>39.37930136627739</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>20.74795328586191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.56644291421873</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>17.5535282905808</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>40.12345962610831</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4.742345240007094</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>49.42587164481904</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>124.2701235914776</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>66.26877877639592</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.943351655479006</v>
+        <v>242.9576405331381</v>
       </c>
       <c r="C14" t="n">
-        <v>225.496690640665</v>
+        <v>225.4966906406651</v>
       </c>
       <c r="D14" t="n">
-        <v>214.9068404903404</v>
+        <v>12.71437165770567</v>
       </c>
       <c r="E14" t="n">
-        <v>1.139880064260211</v>
+        <v>1.13988006426024</v>
       </c>
       <c r="F14" t="n">
-        <v>267.0998446113689</v>
+        <v>26.0855557337099</v>
       </c>
       <c r="G14" t="n">
-        <v>34.51224750713345</v>
+        <v>34.51224750713351</v>
       </c>
       <c r="H14" t="n">
-        <v>175.3892726817749</v>
+        <v>199.6986009854247</v>
       </c>
       <c r="I14" t="n">
-        <v>70.6996884400634</v>
+        <v>70.69968844006343</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,19 +23540,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>10.09291681080717</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.24386845590283</v>
+        <v>69.24386845590286</v>
       </c>
       <c r="T14" t="n">
-        <v>83.31964843378884</v>
+        <v>83.31964843378887</v>
       </c>
       <c r="U14" t="n">
         <v>111.569451777494</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>187.9760573397924</v>
       </c>
       <c r="W14" t="n">
         <v>209.4647675870705</v>
@@ -23738,7 +23738,7 @@
         <v>204.8139236795333</v>
       </c>
       <c r="E17" t="n">
-        <v>232.0612521311121</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>15.9926389229027</v>
@@ -23747,10 +23747,10 @@
         <v>24.41933069632631</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>189.6056841746175</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>60.60677162925623</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>30.76699951753677</v>
+        <v>59.15095164509566</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>73.22673162298167</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>58.12125310568306</v>
       </c>
       <c r="V17" t="n">
-        <v>177.8831405289852</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>199.3718507762633</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>232.8647237223309</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>215.4037738298579</v>
       </c>
       <c r="D20" t="n">
         <v>204.8139236795333</v>
@@ -23984,7 +23984,7 @@
         <v>24.41933069632631</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>189.6056841746175</v>
       </c>
       <c r="I20" t="n">
         <v>60.60677162925623</v>
@@ -24029,13 +24029,13 @@
         <v>177.8831405289852</v>
       </c>
       <c r="W20" t="n">
-        <v>151.0816342596376</v>
+        <v>199.3718507762633</v>
       </c>
       <c r="X20" t="n">
         <v>219.8619827373194</v>
       </c>
       <c r="Y20" t="n">
-        <v>236.3688207149039</v>
+        <v>15.93386991613372</v>
       </c>
     </row>
     <row r="21">
@@ -24206,25 +24206,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>215.4037738298579</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>232.0612521311121</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>265.4336195739854</v>
       </c>
       <c r="H23" t="n">
         <v>189.6056841746175</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>60.60677162925623</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,10 +24254,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>59.15095164509566</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>73.22673162298167</v>
       </c>
       <c r="U23" t="n">
         <v>101.4765349666868</v>
@@ -24266,10 +24266,10 @@
         <v>177.8831405289852</v>
       </c>
       <c r="W23" t="n">
-        <v>83.0859107738049</v>
+        <v>199.3718507762633</v>
       </c>
       <c r="X23" t="n">
-        <v>219.8619827373194</v>
+        <v>92.62299422451208</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24440,25 +24440,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>256.6126763881629</v>
+        <v>259.8117060290012</v>
       </c>
       <c r="C26" t="n">
-        <v>239.1517264956898</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>255.8092047969441</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>280.7548804663937</v>
+        <v>146.7939656029007</v>
       </c>
       <c r="G26" t="n">
-        <v>36.53991155559544</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>216.5526664812878</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>23.74795266583196</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.89890431092762</v>
+        <v>86.097933951766</v>
       </c>
       <c r="T26" t="n">
-        <v>96.97468428881363</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>125.2244876325188</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>201.6310931948172</v>
+        <v>204.8301228356556</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>226.3188330829337</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>246.8089650439897</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>263.3158030215743</v>
       </c>
     </row>
     <row r="27">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.71081490661958</v>
+        <v>56.90984454745795</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>44.32468546414849</v>
       </c>
       <c r="D28" t="n">
-        <v>22.49430774289463</v>
+        <v>25.69333738373301</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>23.51182701208982</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>22.4989123884519</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>39.8396910549022</v>
       </c>
       <c r="H28" t="n">
-        <v>36.10600723212185</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>119.862259825463</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>95.66251771761544</v>
       </c>
     </row>
     <row r="29">
@@ -24680,19 +24680,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>229.4132366083077</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>218.8233864579831</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>246.0707149095619</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>271.0163905790116</v>
       </c>
       <c r="G29" t="n">
-        <v>249.2864692929679</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>203.6151469530673</v>
@@ -24728,25 +24728,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.16041442354549</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>87.2361944014315</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>115.4859977451366</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>191.8926033074351</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>179.0095267968968</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>250.3782834933537</v>
       </c>
     </row>
     <row r="30">
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>108.7851875850479</v>
       </c>
       <c r="C32" t="n">
-        <v>95.08457178310434</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24968,16 +24968,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>4.733448719985262</v>
+        <v>7.932478360823609</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>109.3898576259888</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>134.0775975141053</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.05610848447324</v>
+        <v>167.5704704601728</v>
       </c>
       <c r="C35" t="n">
-        <v>146.9104909268615</v>
+        <v>150.1095205676998</v>
       </c>
       <c r="D35" t="n">
-        <v>136.3206407765369</v>
+        <v>21.19948628670564</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25205,22 +25205,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>4.733448719985262</v>
+        <v>7.932478360823609</v>
       </c>
       <c r="U35" t="n">
-        <v>32.9832520636904</v>
+        <v>36.18228170452875</v>
       </c>
       <c r="V35" t="n">
-        <v>109.3898576259888</v>
+        <v>112.5888872668272</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>151.3686998343229</v>
+        <v>154.5677294751613</v>
       </c>
       <c r="Y35" t="n">
-        <v>167.8755378119075</v>
+        <v>171.0745674527458</v>
       </c>
     </row>
     <row r="36">
@@ -25388,25 +25388,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>167.5704704601728</v>
       </c>
       <c r="C38" t="n">
-        <v>146.9104909268615</v>
+        <v>150.1095205676998</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>163.5679692281157</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.08758750893619549</v>
       </c>
       <c r="G38" t="n">
-        <v>87.28861735685645</v>
+        <v>200.1393663118273</v>
       </c>
       <c r="H38" t="n">
-        <v>121.1124012716211</v>
+        <v>124.3114309124594</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25442,22 +25442,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>7.932478360823609</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>109.3898576259888</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>151.3686998343229</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>171.0745674527458</v>
       </c>
     </row>
     <row r="39">
@@ -25631,7 +25631,7 @@
         <v>251.0300579933799</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>240.4402078430553</v>
       </c>
       <c r="E41" t="n">
         <v>267.6875362946341</v>
@@ -25640,10 +25640,10 @@
         <v>51.61892308642473</v>
       </c>
       <c r="G41" t="n">
-        <v>301.0599037375074</v>
+        <v>60.04561485984834</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>225.2319683381395</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25673,10 +25673,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>35.62628416352206</v>
+        <v>14.35119012147601</v>
       </c>
       <c r="S41" t="n">
-        <v>94.77723580861772</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>108.8530157865037</v>
@@ -25688,10 +25688,10 @@
         <v>213.5094246925073</v>
       </c>
       <c r="W41" t="n">
-        <v>102.5894035149983</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X41" t="n">
-        <v>255.4882669008414</v>
+        <v>14.47397802318235</v>
       </c>
       <c r="Y41" t="n">
         <v>271.995104878426</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>34.37263924058473</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>32.19112886894155</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>31.17821424530362</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>53.74814558083114</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>47.98433872981195</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>41.20764114963066</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>63.05055759954186</v>
+        <v>8.342778176958191</v>
       </c>
       <c r="S43" t="n">
         <v>109.7737642593446</v>
       </c>
       <c r="T43" t="n">
-        <v>101.8558856032393</v>
+        <v>113.7027556506539</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>172.0761955788633</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>111.4668216114095</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>290.1381791712272</v>
+        <v>81.05182316862351</v>
       </c>
       <c r="C44" t="n">
-        <v>272.6772292787541</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D44" t="n">
-        <v>262.0873791284296</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E44" t="n">
-        <v>289.3347075800084</v>
+        <v>51.51944834318766</v>
       </c>
       <c r="F44" t="n">
-        <v>314.2803832494581</v>
+        <v>76.46512401263732</v>
       </c>
       <c r="G44" t="n">
-        <v>81.69278614522261</v>
+        <v>84.89181578606093</v>
       </c>
       <c r="H44" t="n">
-        <v>246.8791396235137</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,28 +25910,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>57.27345544889627</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S44" t="n">
-        <v>116.4244070939919</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T44" t="n">
-        <v>36.09502850658832</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U44" t="n">
-        <v>158.7499904155831</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V44" t="n">
-        <v>235.1565959778815</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W44" t="n">
-        <v>15.63101734750057</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X44" t="n">
-        <v>36.1211493085566</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y44" t="n">
-        <v>293.6422761638001</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="45">
@@ -25941,25 +25941,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>20.53360303411647</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,16 +25992,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>79.08750861158441</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>107.5690662025682</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>121.9586053003449</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26020,22 +26020,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18.51255330870201</v>
+        <v>9.10796238383368</v>
       </c>
       <c r="C46" t="n">
-        <v>74.65115860637442</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>56.01981052595895</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>52.82538553067783</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26044,7 +26044,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.7635176244193644</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.69772888491607</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>131.4209355447188</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V46" t="n">
-        <v>159.5419808315746</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W46" t="n">
-        <v>193.9273358443376</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X46" t="n">
-        <v>133.1139928967837</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y46" t="n">
-        <v>125.9889908598414</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>650419.2177425385</v>
+        <v>651171.2028530429</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>650419.2177425385</v>
+        <v>651374.655238083</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>534689.6082721293</v>
+        <v>534689.6082721294</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>570028.3477599183</v>
+        <v>565599.820981486</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>657198.686101543</v>
+        <v>654715.9191972885</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>619442.4080642906</v>
+        <v>616959.641160036</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>619442.4080642905</v>
+        <v>616959.641160036</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>515828.4868158096</v>
+        <v>515828.4868158097</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>476047.3267231198</v>
+        <v>470091.7169135904</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>645978.8491230652</v>
+        <v>645978.8491230651</v>
       </c>
       <c r="F2" t="n">
-        <v>665718.6794083758</v>
+        <v>665718.6794083759</v>
       </c>
       <c r="G2" t="n">
-        <v>678573.0182586203</v>
+        <v>678573.0182586201</v>
       </c>
       <c r="H2" t="n">
-        <v>678573.0182586203</v>
+        <v>678573.0182586202</v>
       </c>
       <c r="I2" t="n">
-        <v>723979.2588445494</v>
+        <v>723979.2588445493</v>
       </c>
       <c r="J2" t="n">
-        <v>688161.7049763753</v>
+        <v>682257.0026051326</v>
       </c>
       <c r="K2" t="n">
-        <v>706136.8070499161</v>
+        <v>706136.8070499165</v>
       </c>
       <c r="L2" t="n">
-        <v>804388.8227652085</v>
+        <v>801078.466892869</v>
       </c>
       <c r="M2" t="n">
-        <v>758982.5821792795</v>
+        <v>755672.22630694</v>
       </c>
       <c r="N2" t="n">
-        <v>758982.5821792796</v>
+        <v>755672.2263069397</v>
       </c>
       <c r="O2" t="n">
-        <v>620830.6871813044</v>
+        <v>620830.6871813046</v>
       </c>
       <c r="P2" t="n">
-        <v>567789.1403910527</v>
+        <v>559848.3273116798</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9246.052035312925</v>
+        <v>12409.56683453271</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>825.1192760603029</v>
       </c>
       <c r="D3" t="n">
-        <v>3725.650154044539</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>162436.7053148816</v>
       </c>
       <c r="F3" t="n">
-        <v>9526.945118393667</v>
+        <v>9526.945118393633</v>
       </c>
       <c r="G3" t="n">
-        <v>8074.333448645734</v>
+        <v>8074.333448645757</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>39087.136177081</v>
       </c>
       <c r="J3" t="n">
-        <v>90514.41822242492</v>
+        <v>90425.07770525875</v>
       </c>
       <c r="K3" t="n">
-        <v>17317.73702829937</v>
+        <v>20534.27601915373</v>
       </c>
       <c r="L3" t="n">
-        <v>77112.06591479326</v>
+        <v>71517.30628113207</v>
       </c>
       <c r="M3" t="n">
         <v>13567.32283251759</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372910.3638332053</v>
+        <v>369619.9457948466</v>
       </c>
       <c r="C4" t="n">
-        <v>372910.3638332053</v>
+        <v>369066.6789919873</v>
       </c>
       <c r="D4" t="n">
-        <v>370346.5093782342</v>
+        <v>369066.6789919874</v>
       </c>
       <c r="E4" t="n">
-        <v>231468.1854691316</v>
+        <v>229662.9457854241</v>
       </c>
       <c r="F4" t="n">
-        <v>242735.0306732912</v>
+        <v>240929.7909895836</v>
       </c>
       <c r="G4" t="n">
-        <v>250023.8945770022</v>
+        <v>248218.6548932946</v>
       </c>
       <c r="H4" t="n">
-        <v>250023.8945770021</v>
+        <v>248218.6548932946</v>
       </c>
       <c r="I4" t="n">
-        <v>266602.9849204418</v>
+        <v>264664.646777814</v>
       </c>
       <c r="J4" t="n">
-        <v>246203.1625583979</v>
+        <v>240886.7169889498</v>
       </c>
       <c r="K4" t="n">
-        <v>256486.8012576502</v>
+        <v>254548.4631150224</v>
       </c>
       <c r="L4" t="n">
-        <v>312312.2588414144</v>
+        <v>308491.5293767251</v>
       </c>
       <c r="M4" t="n">
-        <v>295733.1684979748</v>
+        <v>292045.5374922057</v>
       </c>
       <c r="N4" t="n">
-        <v>295733.1684979748</v>
+        <v>292045.5374922057</v>
       </c>
       <c r="O4" t="n">
-        <v>217080.8061763025</v>
+        <v>215275.566492595</v>
       </c>
       <c r="P4" t="n">
-        <v>186753.230999857</v>
+        <v>180408.7261502026</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35305.07353582722</v>
+        <v>35879.01713203686</v>
       </c>
       <c r="C5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="D5" t="n">
         <v>36034.29971927991</v>
@@ -26479,7 +26479,7 @@
         <v>25403.36328014064</v>
       </c>
       <c r="F5" t="n">
-        <v>26404.51421658844</v>
+        <v>26404.51421658843</v>
       </c>
       <c r="G5" t="n">
         <v>27253.01563995618</v>
@@ -26491,25 +26491,25 @@
         <v>36189.87237397315</v>
       </c>
       <c r="J5" t="n">
-        <v>34193.40574130933</v>
+        <v>33924.46651843368</v>
       </c>
       <c r="K5" t="n">
         <v>35012.11084765165</v>
       </c>
       <c r="L5" t="n">
-        <v>41948.03417434516</v>
+        <v>41679.09495146952</v>
       </c>
       <c r="M5" t="n">
-        <v>33011.17744032819</v>
+        <v>32742.23821745255</v>
       </c>
       <c r="N5" t="n">
-        <v>33011.17744032819</v>
+        <v>32742.23821745255</v>
       </c>
       <c r="O5" t="n">
         <v>24257.94955661305</v>
       </c>
       <c r="P5" t="n">
-        <v>22438.09351382292</v>
+        <v>22169.15429094728</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>403580.2804599379</v>
+        <v>403133.2401028672</v>
       </c>
       <c r="C6" t="n">
-        <v>412826.332495251</v>
+        <v>415115.6718769559</v>
       </c>
       <c r="D6" t="n">
-        <v>410935.3106127248</v>
+        <v>415940.7911530161</v>
       </c>
       <c r="E6" t="n">
-        <v>226670.5950589114</v>
+        <v>228475.8347426188</v>
       </c>
       <c r="F6" t="n">
-        <v>387052.1894001025</v>
+        <v>388857.4290838102</v>
       </c>
       <c r="G6" t="n">
-        <v>393221.7745930162</v>
+        <v>395027.0142767235</v>
       </c>
       <c r="H6" t="n">
-        <v>401296.108041662</v>
+        <v>403101.3477253694</v>
       </c>
       <c r="I6" t="n">
-        <v>382099.2653730535</v>
+        <v>384037.6035156811</v>
       </c>
       <c r="J6" t="n">
-        <v>317250.7184542431</v>
+        <v>317020.7413924905</v>
       </c>
       <c r="K6" t="n">
-        <v>397320.1579163148</v>
+        <v>396041.9570680887</v>
       </c>
       <c r="L6" t="n">
-        <v>373016.4638346558</v>
+        <v>379390.5362835423</v>
       </c>
       <c r="M6" t="n">
-        <v>416670.913408459</v>
+        <v>417317.1277647641</v>
       </c>
       <c r="N6" t="n">
-        <v>430238.2362409767</v>
+        <v>430884.4505972815</v>
       </c>
       <c r="O6" t="n">
-        <v>379491.9314483888</v>
+        <v>381297.1711320965</v>
       </c>
       <c r="P6" t="n">
-        <v>358597.8158773728</v>
+        <v>357270.4468705299</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="J2" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="K2" t="n">
         <v>135.8596551626999</v>
       </c>
       <c r="L2" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="M2" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="N2" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="O2" t="n">
         <v>114.2428337776276</v>
       </c>
       <c r="P2" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="C4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D4" t="n">
         <v>39.58387696184059</v>
@@ -26917,10 +26917,10 @@
         <v>127.8675197323504</v>
       </c>
       <c r="F2" t="n">
-        <v>11.90868139799208</v>
+        <v>11.90868139799204</v>
       </c>
       <c r="G2" t="n">
-        <v>10.09291681080717</v>
+        <v>10.0929168108072</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>104.1195670665185</v>
+        <v>100.9205374256801</v>
       </c>
       <c r="K2" t="n">
-        <v>21.64717128537421</v>
+        <v>24.84620092621255</v>
       </c>
       <c r="L2" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141509</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2.55398992176066</v>
       </c>
       <c r="D4" t="n">
-        <v>11.99385170152445</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>201.4304119158185</v>
@@ -27033,13 +27033,13 @@
         <v>146.9877752305422</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031611</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2.55398992176066</v>
       </c>
       <c r="L4" t="n">
-        <v>11.99385170152448</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>54.44263668527628</v>
@@ -27154,10 +27154,10 @@
         <v>127.8675197323504</v>
       </c>
       <c r="K2" t="n">
-        <v>11.90868139799208</v>
+        <v>11.90868139799204</v>
       </c>
       <c r="L2" t="n">
-        <v>10.09291681080717</v>
+        <v>10.0929168108072</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>104.1195670665185</v>
+        <v>100.9205374256801</v>
       </c>
       <c r="P2" t="n">
-        <v>21.64717128537421</v>
+        <v>24.84620092621255</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2.55398992176066</v>
       </c>
       <c r="L4" t="n">
-        <v>11.99385170152445</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>201.4304119158185</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>379.2860204813953</v>
+        <v>396.2001098059663</v>
       </c>
       <c r="G2" t="n">
-        <v>387.7127122548189</v>
+        <v>378.2728504750551</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>173.446002530326</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>112.8392309010698</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27433,10 +27433,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>248.9843472277074</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>300.1622332098187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27464,22 +27464,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>134.0903775323723</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>100.3136301231307</v>
       </c>
       <c r="H3" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>67.54190964774075</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>214.6650961208397</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>168.6528087372244</v>
       </c>
     </row>
     <row r="4">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6567958383117</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>118.843937386253</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>133.0017155667489</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27582,28 +27582,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>164.6602002952585</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>186.9867109968923</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>249.289142316411</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>249.4931112965111</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.9946280917787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>379.2860204813953</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>390.4279579016907</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27664,7 +27664,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>182.4221868063226</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X5" t="n">
-        <v>342.1410754181529</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>119.8550403043226</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27713,7 +27713,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,19 +27743,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>148.1284681808092</v>
+        <v>137.5642836021065</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>224.1049579006035</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>140.2481032200967</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>136.4564102853049</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,10 +27795,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,16 +27813,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>58.57201799137825</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>198.9687459771361</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27831,7 +27831,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>367.2921687798708</v>
+        <v>387.3133044288573</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27910,16 +27910,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X8" t="n">
-        <v>356.8056104196372</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y8" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27980,13 +27980,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>136.8176922758487</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V9" t="n">
         <v>193.2167101875847</v>
@@ -27995,10 +27995,10 @@
         <v>212.111106199079</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y9" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,31 +28050,31 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>152.722894615054</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>217.9680370670172</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28178,7 +28178,7 @@
         <v>127.8675197323504</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>127.8675197323504</v>
       </c>
       <c r="G12" t="n">
         <v>127.8675197323504</v>
@@ -28217,13 +28217,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>127.8675197323504</v>
+        <v>78.61412205330424</v>
       </c>
       <c r="T12" t="n">
         <v>127.8675197323504</v>
       </c>
       <c r="U12" t="n">
-        <v>127.8675197323504</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>127.8675197323504</v>
@@ -28235,7 +28235,7 @@
         <v>127.8675197323504</v>
       </c>
       <c r="Y12" t="n">
-        <v>78.6141220533041</v>
+        <v>127.8675197323504</v>
       </c>
     </row>
     <row r="13">
@@ -28406,16 +28406,16 @@
         <v>139.7762011303425</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="E15" t="n">
         <v>139.7762011303425</v>
       </c>
       <c r="F15" t="n">
-        <v>89.82751177286565</v>
+        <v>89.82751177286617</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -28469,10 +28469,10 @@
         <v>139.7762011303425</v>
       </c>
       <c r="X15" t="n">
-        <v>139.7762011303425</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>139.7762011303425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28518,7 +28518,7 @@
         <v>139.7762011303425</v>
       </c>
       <c r="N16" t="n">
-        <v>44.50674994640602</v>
+        <v>44.50674994640636</v>
       </c>
       <c r="O16" t="n">
         <v>139.7762011303425</v>
@@ -28658,13 +28658,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28691,13 +28691,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>58.72476887289787</v>
+        <v>6.21521839987804</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>149.8691179411497</v>
@@ -28743,13 +28743,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="J19" t="n">
-        <v>118.1514512903083</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="K19" t="n">
-        <v>149.8691179411497</v>
+        <v>118.1514512903084</v>
       </c>
       <c r="L19" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="P19" t="n">
         <v>149.8691179411497</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="C21" t="n">
         <v>149.8691179411497</v>
@@ -28889,7 +28889,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="F21" t="n">
-        <v>1.415312852112208</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -28931,13 +28931,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="T21" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>6.215218399877898</v>
       </c>
       <c r="W21" t="n">
         <v>149.8691179411497</v>
@@ -28980,22 +28980,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="J22" t="n">
-        <v>118.1514512903083</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>149.8691179411497</v>
+        <v>24.79227117363558</v>
       </c>
       <c r="L22" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="P22" t="n">
         <v>149.8691179411497</v>
@@ -29062,25 +29062,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="K23" t="n">
-        <v>144.3541364440174</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4.475717717412664</v>
+      </c>
+      <c r="P23" t="n">
         <v>149.8691179411497</v>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="Q23" t="n">
         <v>149.8691179411497</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -29114,16 +29114,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="C24" t="n">
-        <v>73.26942006244408</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -29135,10 +29135,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29171,16 +29171,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>149.8691179411497</v>
+        <v>35.26153204978857</v>
       </c>
       <c r="Y24" t="n">
         <v>149.8691179411497</v>
@@ -29223,19 +29223,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="L25" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="O25" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="P25" t="n">
-        <v>31.98940803861409</v>
+        <v>31.98940803861398</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="C26" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="D26" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="E26" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="F26" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="G26" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="H26" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="I26" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="J26" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="K26" t="n">
-        <v>126.1211652753177</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>112.263646944094</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="N26" t="n">
-        <v>99.46752838074025</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="R26" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="S26" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="T26" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="U26" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="V26" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="W26" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="X26" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="Y26" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="C27" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="D27" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="E27" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="F27" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="G27" t="n">
-        <v>126.1211652753177</v>
+        <v>54.2717315531155</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,25 +29399,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="T27" t="n">
-        <v>126.1211652753177</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="V27" t="n">
-        <v>126.1211652753177</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>81.42610475716589</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="C28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="D28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="E28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="F28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="G28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="H28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="I28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="J28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="K28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="L28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="M28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="N28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="O28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="P28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="R28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="S28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="T28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="U28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="V28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="W28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="X28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.1211652753177</v>
+        <v>122.9221356344793</v>
       </c>
     </row>
     <row r="29">
@@ -29536,25 +29536,25 @@
         <v>135.8596551626999</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.8596551626999</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>135.8596551626999</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>60.51356883121213</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>135.8596551626999</v>
-      </c>
-      <c r="N29" t="n">
-        <v>135.8596551626999</v>
-      </c>
-      <c r="O29" t="n">
-        <v>135.8596551626999</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>60.51356883121201</v>
       </c>
       <c r="R29" t="n">
         <v>135.8596551626999</v>
@@ -29588,28 +29588,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>135.8596551626999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -29639,10 +29639,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>99.56875001827157</v>
       </c>
       <c r="T30" t="n">
-        <v>29.48151678078352</v>
+        <v>135.8596551626999</v>
       </c>
       <c r="U30" t="n">
         <v>135.8596551626999</v>
@@ -29651,13 +29651,13 @@
         <v>135.8596551626999</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>135.8596551626999</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>135.8596551626999</v>
       </c>
       <c r="Y30" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="C32" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="D32" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="E32" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="F32" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="G32" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="H32" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="I32" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="J32" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>90.84759361698275</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="Q32" t="n">
-        <v>218.3624008441461</v>
+        <v>97.50041056327386</v>
       </c>
       <c r="R32" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="T32" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="U32" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="V32" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="W32" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="X32" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="Y32" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
     </row>
     <row r="33">
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -29834,7 +29834,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>116.8192693949667</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -29846,7 +29846,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -29882,10 +29882,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>39.5097693788563</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29925,10 +29925,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>216.1712113101834</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>176.9277968035142</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -29955,25 +29955,25 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="T34" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="U34" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="V34" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="X34" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="C35" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="D35" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="E35" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="F35" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="G35" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="H35" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -30037,22 +30037,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="U35" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="V35" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="W35" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="X35" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="Y35" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
     </row>
     <row r="36">
@@ -30068,25 +30068,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -30119,19 +30119,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>218.3624008441461</v>
+        <v>65.03829017454686</v>
       </c>
       <c r="V36" t="n">
-        <v>218.3624008441461</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>86.65809153980615</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -30141,13 +30141,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>158.9827188575451</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -30168,7 +30168,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>82.99022820880796</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="S37" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="T37" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="U37" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="V37" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="X37" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="C38" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="D38" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="E38" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="F38" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="G38" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="H38" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -30274,22 +30274,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="U38" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="V38" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="W38" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="X38" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="Y38" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
     </row>
     <row r="39">
@@ -30308,7 +30308,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -30320,10 +30320,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30353,22 +30353,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>218.3624008441461</v>
+        <v>192.787584763018</v>
       </c>
       <c r="V39" t="n">
-        <v>218.3624008441461</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>218.3624008441461</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>21.73035726369432</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -30378,16 +30378,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="C40" t="n">
-        <v>171.8323291448464</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>194.6711883120402</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -30396,7 +30396,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>218.3624008441461</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -30429,25 +30429,25 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="T40" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="U40" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="V40" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="X40" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.3624008441461</v>
+        <v>215.1633712033077</v>
       </c>
     </row>
     <row r="41">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C44" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D44" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E44" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F44" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G44" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H44" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I44" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30742,28 +30742,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S44" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T44" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U44" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V44" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W44" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X44" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y44" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="45">
@@ -30773,25 +30773,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C45" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D45" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E45" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F45" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G45" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H45" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -30821,28 +30821,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S45" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T45" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U45" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V45" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W45" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X45" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y45" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="46">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y46" t="n">
-        <v>92.59566249225341</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>27.59002526031614</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>35.5337299879555</v>
       </c>
       <c r="P2" t="n">
-        <v>26.47527676494983</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>27.59002526031614</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="L3" t="n">
-        <v>27.59002526031614</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="M3" t="n">
-        <v>27.59002526031614</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="N3" t="n">
-        <v>26.47527676494983</v>
+        <v>35.5337299879555</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34863,10 +34863,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>27.59002526031614</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="N4" t="n">
-        <v>27.59002526031614</v>
+        <v>37.02988704007993</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L5" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,10 +35100,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35176,19 +35176,19 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="M8" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="N8" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L9" t="n">
         <v>39.58387696184059</v>
@@ -35264,7 +35264,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>39.58387696184059</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>99.81127712997396</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.41702101366974</v>
+        <v>46.41702101366971</v>
       </c>
       <c r="K16" t="n">
-        <v>117.5067093044597</v>
+        <v>117.5067093044596</v>
       </c>
       <c r="L16" t="n">
-        <v>167.3662263906587</v>
+        <v>167.3662263906586</v>
       </c>
       <c r="M16" t="n">
         <v>179.3600780921831</v>
       </c>
       <c r="N16" t="n">
-        <v>88.63892232563461</v>
+        <v>88.63892232563495</v>
       </c>
       <c r="O16" t="n">
         <v>164.3613290443822</v>
@@ -35823,7 +35823,7 @@
         <v>137.054760395236</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.61415787864813</v>
+        <v>53.6141578786481</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>91.0829537758999</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>24.79227117363556</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="K19" t="n">
-        <v>127.5996261152668</v>
+        <v>95.88195946442551</v>
       </c>
       <c r="L19" t="n">
-        <v>177.4591432014658</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M19" t="n">
         <v>39.58387696184059</v>
@@ -36054,7 +36054,7 @@
         <v>194.0012903203783</v>
       </c>
       <c r="O19" t="n">
-        <v>24.58512791403967</v>
+        <v>174.4542458551894</v>
       </c>
       <c r="P19" t="n">
         <v>147.1476772060432</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,16 +36209,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O21" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>24.79227117363556</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>127.5996261152668</v>
+        <v>2.522779347752729</v>
       </c>
       <c r="L22" t="n">
-        <v>177.4591432014658</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M22" t="n">
         <v>189.4529949029903</v>
       </c>
       <c r="N22" t="n">
-        <v>44.13217237922859</v>
+        <v>194.0012903203783</v>
       </c>
       <c r="O22" t="n">
-        <v>24.58512791403967</v>
+        <v>174.4542458551894</v>
       </c>
       <c r="P22" t="n">
         <v>147.1476772060432</v>
@@ -36358,25 +36358,25 @@
         <v>137.9198285865372</v>
       </c>
       <c r="K23" t="n">
-        <v>248.4096979702016</v>
+        <v>253.9246794673339</v>
       </c>
       <c r="L23" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M23" t="n">
-        <v>369.0364182067094</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N23" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O23" t="n">
-        <v>300.5710877822083</v>
+        <v>155.1776875584713</v>
       </c>
       <c r="P23" t="n">
-        <v>90.5657124162131</v>
+        <v>240.4348303573628</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>139.8784187266049</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36519,19 +36519,19 @@
         <v>127.5996261152668</v>
       </c>
       <c r="L25" t="n">
-        <v>177.4591432014658</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M25" t="n">
         <v>189.4529949029903</v>
       </c>
       <c r="N25" t="n">
-        <v>44.13217237922859</v>
+        <v>194.0012903203783</v>
       </c>
       <c r="O25" t="n">
         <v>174.4542458551894</v>
       </c>
       <c r="P25" t="n">
-        <v>29.26796730350758</v>
+        <v>29.26796730350747</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>114.1718759207052</v>
+        <v>110.9728462798668</v>
       </c>
       <c r="K26" t="n">
-        <v>230.1767268015019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L26" t="n">
-        <v>181.8947995804632</v>
+        <v>294.1584465245572</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>342.0894359000391</v>
       </c>
       <c r="N26" t="n">
-        <v>307.4013891961335</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>276.8231351163764</v>
+        <v>273.624105475538</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
       </c>
       <c r="Q26" t="n">
-        <v>116.1304660607729</v>
+        <v>112.9314364199345</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>32.76198515864495</v>
+        <v>29.56295551780657</v>
       </c>
       <c r="K28" t="n">
-        <v>103.8516734494349</v>
+        <v>100.6526438085965</v>
       </c>
       <c r="L28" t="n">
-        <v>153.7111905356339</v>
+        <v>150.5121608947955</v>
       </c>
       <c r="M28" t="n">
-        <v>165.7050422371583</v>
+        <v>162.5060125963199</v>
       </c>
       <c r="N28" t="n">
-        <v>170.2533376545463</v>
+        <v>167.054308013708</v>
       </c>
       <c r="O28" t="n">
-        <v>150.7062931893574</v>
+        <v>147.507263548519</v>
       </c>
       <c r="P28" t="n">
-        <v>123.3997245402112</v>
+        <v>120.2006948993728</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.95912202362334</v>
+        <v>36.76009238278496</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,25 +36832,25 @@
         <v>123.9103658080873</v>
       </c>
       <c r="K29" t="n">
-        <v>104.0555615261842</v>
+        <v>239.915216688884</v>
       </c>
       <c r="L29" t="n">
-        <v>181.8947995804632</v>
+        <v>317.754454743163</v>
       </c>
       <c r="M29" t="n">
-        <v>355.0269554282596</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>343.7935159780931</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>286.5616250037585</v>
+        <v>211.2155386722708</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
       </c>
       <c r="Q29" t="n">
-        <v>50.5228696166672</v>
+        <v>125.868955948155</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>7.886511273740183</v>
+        <v>4.687481632901836</v>
       </c>
       <c r="J32" t="n">
-        <v>206.4131114895336</v>
+        <v>203.2140818486952</v>
       </c>
       <c r="K32" t="n">
         <v>104.0555615261842</v>
@@ -37078,22 +37078,22 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>298.781454432376</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>305.7290836195208</v>
       </c>
       <c r="Q32" t="n">
-        <v>208.3717016296013</v>
+        <v>87.50971134872906</v>
       </c>
       <c r="R32" t="n">
-        <v>68.49328290299641</v>
+        <v>65.29425326215807</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>6.143301617062406</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37221,10 +37221,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>60.72073638292512</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>83.56861668684148</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,13 +37397,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37437,13 +37437,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>35.33139102137045</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>10.36724583933275</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>60.72073638292512</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>27.59002526031614</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>37.86997982613826</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37674,16 +37674,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>35.33139102137045</v>
       </c>
       <c r="C40" t="n">
-        <v>4.585508046218596</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>48.23722566547104</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>56.13522833670652</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>91.0829537758999</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -38099,19 +38099,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M45" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
@@ -38175,25 +38175,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>70.32617066637056</v>
+        <v>67.12714102553223</v>
       </c>
       <c r="L46" t="n">
-        <v>120.1856877525695</v>
+        <v>116.9866581117312</v>
       </c>
       <c r="M46" t="n">
-        <v>132.179539454094</v>
+        <v>128.9805098132557</v>
       </c>
       <c r="N46" t="n">
-        <v>136.727834871482</v>
+        <v>133.5288052306437</v>
       </c>
       <c r="O46" t="n">
-        <v>117.1807904062931</v>
+        <v>113.9817607654548</v>
       </c>
       <c r="P46" t="n">
-        <v>89.8742217571469</v>
+        <v>86.67519211630857</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.433619240559025</v>
+        <v>3.234589599720692</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
